--- a/orders/project-supplies/ProjectSuppliesRequestForm_FLoRaCommunications_Order4.xlsx
+++ b/orders/project-supplies/ProjectSuppliesRequestForm_FLoRaCommunications_Order4.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Cam/Documents/flora-git/flora-hardware/orders/project-supplies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20B4A68A-BB75-5740-919D-796AB201982C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63535496-4A26-4744-A25C-ED81F8E8972E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="38400" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="38400" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Mouser" sheetId="1" r:id="rId1"/>
+    <sheet name="Amazon" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$2:$N$57</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Amazon!$A$2:$N$57</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Mouser!$A$2:$N$57</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="133">
   <si>
     <t>Student Email:</t>
   </si>
@@ -421,6 +423,21 @@
   </si>
   <si>
     <t>Mouser</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Cloudisk-Memory-Adapter-Reader-TF-Black-5/dp/B0D2TBCBR4/ref=sxin_15_pa_sp_search_thematic_sspa?content-id=amzn1.sym.e251a9a8-91a9-4f1e-be32-505687a120a3%3Aamzn1.sym.e251a9a8-91a9-4f1e-be32-505687a120a3&amp;crid=1101ES1NY8SFP&amp;cv_ct_cx=1%2BGB%2Bmicro%2BSD%2Bcards&amp;dib=eyJ2IjoiMSJ9.3ANaGcCz_1eCvELhxUm7AFjRpBAfOyStjG0cQ3vJjEdki-wZwciA_72Fy6YE-uivx3Wf2PJyU2g3sTvPjzknMg.xugYmA-sgkaZbCk8Q-2sBKtO3kez0IHt0rvXDD2zunw&amp;dib_tag=se&amp;keywords=1%2BGB%2Bmicro%2BSD%2Bcards&amp;pd_rd_i=B0D2RB8C28&amp;pd_rd_r=03cadadb-cdcd-4e8d-a287-a66067876741&amp;pd_rd_w=o3uHy&amp;pd_rd_wg=1JbXG&amp;pf_rd_p=e251a9a8-91a9-4f1e-be32-505687a120a3&amp;pf_rd_r=ZYHW9MQJ91QN8G1DJVK2&amp;qid=1730685708&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=1tb%2Bmicro%2Bsd%2Bcards%2Caps%2C177&amp;sr=1-4-0db4faf6-3485-4ed7-80e2-7395e0b5d027-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9zZWFyY2hfdGhlbWF0aWM&amp;th=1</t>
+  </si>
+  <si>
+    <t>4 GB Micro SD Cards (5 Pack)</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>CDYW5pack</t>
   </si>
 </sst>
 </file>
@@ -431,7 +448,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.0000"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -553,6 +570,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -938,7 +961,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1106,6 +1129,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1128,13 +1152,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1447,7 +1483,7 @@
   </sheetPr>
   <dimension ref="A2:N58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -1488,7 +1524,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="70"/>
-      <c r="D3" s="82"/>
+      <c r="D3" s="83"/>
       <c r="E3" s="72" t="s">
         <v>22</v>
       </c>
@@ -1516,7 +1552,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="71"/>
-      <c r="D4" s="81"/>
+      <c r="D4" s="82"/>
       <c r="E4" s="40">
         <f ca="1">TODAY()</f>
         <v>45599</v>
@@ -1565,11 +1601,11 @@
       <c r="I6" s="9"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="83" t="s">
+      <c r="L6" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="84"/>
-      <c r="N6" s="85"/>
+      <c r="M6" s="85"/>
+      <c r="N6" s="86"/>
     </row>
     <row r="7" spans="1:14" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
@@ -1619,23 +1655,23 @@
       <c r="A8" s="19">
         <v>1</v>
       </c>
-      <c r="B8" s="77">
+      <c r="B8" s="78">
         <v>20</v>
       </c>
-      <c r="C8" s="78"/>
+      <c r="C8" s="79"/>
       <c r="D8" s="74" t="s">
         <v>26</v>
       </c>
       <c r="E8" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="86" t="s">
+      <c r="F8" s="87" t="s">
         <v>28</v>
       </c>
       <c r="G8" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="79" t="s">
+      <c r="H8" s="80" t="s">
         <v>125</v>
       </c>
       <c r="I8" s="74" t="s">
@@ -1656,23 +1692,23 @@
       <c r="A9" s="18">
         <v>2</v>
       </c>
-      <c r="B9" s="77">
+      <c r="B9" s="78">
         <v>10</v>
       </c>
-      <c r="C9" s="78"/>
+      <c r="C9" s="79"/>
       <c r="D9" s="74" t="s">
         <v>31</v>
       </c>
       <c r="E9" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="86" t="s">
+      <c r="F9" s="87" t="s">
         <v>33</v>
       </c>
       <c r="G9" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="79" t="s">
+      <c r="H9" s="80" t="s">
         <v>34</v>
       </c>
       <c r="I9" s="74" t="s">
@@ -1693,23 +1729,23 @@
       <c r="A10" s="19">
         <v>3</v>
       </c>
-      <c r="B10" s="77">
+      <c r="B10" s="78">
         <v>10</v>
       </c>
-      <c r="C10" s="78"/>
+      <c r="C10" s="79"/>
       <c r="D10" s="74" t="s">
         <v>35</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="86" t="s">
+      <c r="F10" s="87" t="s">
         <v>37</v>
       </c>
       <c r="G10" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="79" t="s">
+      <c r="H10" s="80" t="s">
         <v>38</v>
       </c>
       <c r="I10" s="74" t="s">
@@ -1730,10 +1766,10 @@
       <c r="A11" s="18">
         <v>4</v>
       </c>
-      <c r="B11" s="77">
+      <c r="B11" s="78">
         <v>10</v>
       </c>
-      <c r="C11" s="78"/>
+      <c r="C11" s="79"/>
       <c r="D11" s="74" t="s">
         <v>39</v>
       </c>
@@ -1746,7 +1782,7 @@
       <c r="G11" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="79" t="s">
+      <c r="H11" s="80" t="s">
         <v>63</v>
       </c>
       <c r="I11" s="74" t="s">
@@ -1767,23 +1803,23 @@
       <c r="A12" s="19">
         <v>5</v>
       </c>
-      <c r="B12" s="77">
+      <c r="B12" s="78">
         <v>3</v>
       </c>
-      <c r="C12" s="78"/>
+      <c r="C12" s="79"/>
       <c r="D12" s="74" t="s">
         <v>43</v>
       </c>
       <c r="E12" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="86" t="s">
+      <c r="F12" s="87" t="s">
         <v>45</v>
       </c>
       <c r="G12" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="79" t="s">
+      <c r="H12" s="80" t="s">
         <v>46</v>
       </c>
       <c r="I12" s="74" t="s">
@@ -1804,23 +1840,23 @@
       <c r="A13" s="18">
         <v>6</v>
       </c>
-      <c r="B13" s="77">
+      <c r="B13" s="78">
         <v>10</v>
       </c>
-      <c r="C13" s="78"/>
+      <c r="C13" s="79"/>
       <c r="D13" s="74" t="s">
         <v>48</v>
       </c>
       <c r="E13" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="86" t="s">
+      <c r="F13" s="87" t="s">
         <v>50</v>
       </c>
       <c r="G13" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="79" t="s">
+      <c r="H13" s="80" t="s">
         <v>64</v>
       </c>
       <c r="I13" s="74" t="s">
@@ -1841,23 +1877,23 @@
       <c r="A14" s="19">
         <v>7</v>
       </c>
-      <c r="B14" s="77">
+      <c r="B14" s="78">
         <v>2</v>
       </c>
-      <c r="C14" s="78"/>
+      <c r="C14" s="79"/>
       <c r="D14" s="74" t="s">
         <v>51</v>
       </c>
       <c r="E14" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="86" t="s">
+      <c r="F14" s="87" t="s">
         <v>53</v>
       </c>
       <c r="G14" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="79" t="s">
+      <c r="H14" s="80" t="s">
         <v>61</v>
       </c>
       <c r="I14" s="74" t="s">
@@ -1878,23 +1914,23 @@
       <c r="A15" s="18">
         <v>8</v>
       </c>
-      <c r="B15" s="77">
+      <c r="B15" s="78">
         <v>2</v>
       </c>
-      <c r="C15" s="78"/>
+      <c r="C15" s="79"/>
       <c r="D15" s="74" t="s">
         <v>54</v>
       </c>
       <c r="E15" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="86" t="s">
+      <c r="F15" s="87" t="s">
         <v>56</v>
       </c>
       <c r="G15" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="79" t="s">
+      <c r="H15" s="80" t="s">
         <v>62</v>
       </c>
       <c r="I15" s="74" t="s">
@@ -1915,10 +1951,10 @@
       <c r="A16" s="19">
         <v>9</v>
       </c>
-      <c r="B16" s="77">
+      <c r="B16" s="78">
         <v>2</v>
       </c>
-      <c r="C16" s="78"/>
+      <c r="C16" s="79"/>
       <c r="D16" s="74" t="s">
         <v>57</v>
       </c>
@@ -1931,7 +1967,7 @@
       <c r="G16" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="79" t="s">
+      <c r="H16" s="80" t="s">
         <v>60</v>
       </c>
       <c r="I16" s="74" t="s">
@@ -1952,10 +1988,10 @@
       <c r="A17" s="18">
         <v>10</v>
       </c>
-      <c r="B17" s="75">
+      <c r="B17" s="76">
         <v>10</v>
       </c>
-      <c r="C17" s="76"/>
+      <c r="C17" s="77"/>
       <c r="D17" s="74" t="s">
         <v>65</v>
       </c>
@@ -1989,10 +2025,10 @@
       <c r="A18" s="19">
         <v>11</v>
       </c>
-      <c r="B18" s="75">
+      <c r="B18" s="76">
         <v>10</v>
       </c>
-      <c r="C18" s="76"/>
+      <c r="C18" s="77"/>
       <c r="D18" s="74" t="s">
         <v>70</v>
       </c>
@@ -2026,10 +2062,10 @@
       <c r="A19" s="18">
         <v>12</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="76">
         <v>10</v>
       </c>
-      <c r="C19" s="76"/>
+      <c r="C19" s="77"/>
       <c r="D19" s="74" t="s">
         <v>74</v>
       </c>
@@ -2063,10 +2099,10 @@
       <c r="A20" s="19">
         <v>13</v>
       </c>
-      <c r="B20" s="75">
+      <c r="B20" s="76">
         <v>15</v>
       </c>
-      <c r="C20" s="76"/>
+      <c r="C20" s="77"/>
       <c r="D20" s="74" t="s">
         <v>78</v>
       </c>
@@ -2100,10 +2136,10 @@
       <c r="A21" s="18">
         <v>14</v>
       </c>
-      <c r="B21" s="75">
+      <c r="B21" s="76">
         <v>10</v>
       </c>
-      <c r="C21" s="76"/>
+      <c r="C21" s="77"/>
       <c r="D21" s="74" t="s">
         <v>82</v>
       </c>
@@ -2137,10 +2173,10 @@
       <c r="A22" s="19">
         <v>15</v>
       </c>
-      <c r="B22" s="75">
+      <c r="B22" s="76">
         <v>10</v>
       </c>
-      <c r="C22" s="76"/>
+      <c r="C22" s="77"/>
       <c r="D22" s="74" t="s">
         <v>86</v>
       </c>
@@ -2174,10 +2210,10 @@
       <c r="A23" s="18">
         <v>16</v>
       </c>
-      <c r="B23" s="75">
+      <c r="B23" s="76">
         <v>10</v>
       </c>
-      <c r="C23" s="76"/>
+      <c r="C23" s="77"/>
       <c r="D23" s="74" t="s">
         <v>90</v>
       </c>
@@ -2211,10 +2247,10 @@
       <c r="A24" s="19">
         <v>17</v>
       </c>
-      <c r="B24" s="75">
+      <c r="B24" s="76">
         <v>10</v>
       </c>
-      <c r="C24" s="76"/>
+      <c r="C24" s="77"/>
       <c r="D24" s="74" t="s">
         <v>94</v>
       </c>
@@ -2230,7 +2266,7 @@
       <c r="H24" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="I24" s="80" t="s">
+      <c r="I24" s="81" t="s">
         <v>30</v>
       </c>
       <c r="J24" s="74">
@@ -2248,10 +2284,10 @@
       <c r="A25" s="18">
         <v>18</v>
       </c>
-      <c r="B25" s="75">
+      <c r="B25" s="76">
         <v>10</v>
       </c>
-      <c r="C25" s="76"/>
+      <c r="C25" s="77"/>
       <c r="D25" s="74" t="s">
         <v>97</v>
       </c>
@@ -2285,10 +2321,10 @@
       <c r="A26" s="19">
         <v>19</v>
       </c>
-      <c r="B26" s="75">
+      <c r="B26" s="76">
         <v>20</v>
       </c>
-      <c r="C26" s="76"/>
+      <c r="C26" s="77"/>
       <c r="D26" s="74" t="s">
         <v>101</v>
       </c>
@@ -2322,10 +2358,10 @@
       <c r="A27" s="18">
         <v>20</v>
       </c>
-      <c r="B27" s="75">
+      <c r="B27" s="76">
         <v>10</v>
       </c>
-      <c r="C27" s="76"/>
+      <c r="C27" s="77"/>
       <c r="D27" s="74" t="s">
         <v>105</v>
       </c>
@@ -2359,10 +2395,10 @@
       <c r="A28" s="19">
         <v>21</v>
       </c>
-      <c r="B28" s="75">
+      <c r="B28" s="76">
         <v>10</v>
       </c>
-      <c r="C28" s="76"/>
+      <c r="C28" s="77"/>
       <c r="D28" s="74" t="s">
         <v>109</v>
       </c>
@@ -2396,10 +2432,10 @@
       <c r="A29" s="18">
         <v>22</v>
       </c>
-      <c r="B29" s="75">
+      <c r="B29" s="76">
         <v>10</v>
       </c>
-      <c r="C29" s="76"/>
+      <c r="C29" s="77"/>
       <c r="D29" s="74" t="s">
         <v>113</v>
       </c>
@@ -2433,10 +2469,10 @@
       <c r="A30" s="19">
         <v>23</v>
       </c>
-      <c r="B30" s="75">
+      <c r="B30" s="76">
         <v>10</v>
       </c>
-      <c r="C30" s="76"/>
+      <c r="C30" s="77"/>
       <c r="D30" s="74" t="s">
         <v>117</v>
       </c>
@@ -2470,10 +2506,10 @@
       <c r="A31" s="18">
         <v>24</v>
       </c>
-      <c r="B31" s="75">
+      <c r="B31" s="76">
         <v>10</v>
       </c>
-      <c r="C31" s="76"/>
+      <c r="C31" s="77"/>
       <c r="D31" s="74" t="s">
         <v>121</v>
       </c>
@@ -3072,7 +3108,7 @@
     <mergeCell ref="E3:F3"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:C16 B33:C57 B21:C31">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3092,4 +3128,1290 @@
   <pageMargins left="0.2" right="0.2" top="0.25" bottom="0.25" header="0.3" footer="0.05"/>
   <pageSetup paperSize="5" scale="42" orientation="landscape" r:id="rId11"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{070440CC-D565-764A-9753-04D3B4FD4C1B}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:N58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="3" width="12" style="3" customWidth="1"/>
+    <col min="4" max="7" width="40" style="3" customWidth="1"/>
+    <col min="8" max="8" width="91.1640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="24.5" style="11" customWidth="1"/>
+    <col min="10" max="11" width="13.5" style="7" customWidth="1"/>
+    <col min="12" max="12" width="31.33203125" customWidth="1"/>
+    <col min="13" max="13" width="14.1640625" style="13" customWidth="1"/>
+    <col min="14" max="14" width="13.83203125" style="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+    </row>
+    <row r="3" spans="1:14" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
+      <c r="B3" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="70"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="73"/>
+      <c r="G3" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="64" t="s">
+        <v>131</v>
+      </c>
+      <c r="I3" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="67"/>
+    </row>
+    <row r="4" spans="1:14" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="B4" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="71"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="40">
+        <f ca="1">TODAY()</f>
+        <v>45599</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="67"/>
+    </row>
+    <row r="5" spans="1:14" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="1"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="84" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="85"/>
+      <c r="N6" s="86"/>
+    </row>
+    <row r="7" spans="1:14" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="N7" s="31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="19">
+        <v>1</v>
+      </c>
+      <c r="B8" s="88">
+        <v>1</v>
+      </c>
+      <c r="C8" s="79"/>
+      <c r="D8" s="92" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" s="89" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" s="90" t="s">
+        <v>128</v>
+      </c>
+      <c r="G8" s="89" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="91" t="s">
+        <v>129</v>
+      </c>
+      <c r="I8" s="89" t="s">
+        <v>130</v>
+      </c>
+      <c r="J8" s="89">
+        <v>22.99</v>
+      </c>
+      <c r="K8" s="63">
+        <f>J8*B8</f>
+        <v>22.99</v>
+      </c>
+      <c r="L8" s="58"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="35"/>
+    </row>
+    <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="18">
+        <v>2</v>
+      </c>
+      <c r="B9" s="88"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="63">
+        <f t="shared" ref="K9:K57" si="0">J9*B9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="59"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="36"/>
+    </row>
+    <row r="10" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="19">
+        <v>3</v>
+      </c>
+      <c r="B10" s="88"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="60"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="37"/>
+    </row>
+    <row r="11" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="18">
+        <v>4</v>
+      </c>
+      <c r="B11" s="88"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="59"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="36"/>
+    </row>
+    <row r="12" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="19">
+        <v>5</v>
+      </c>
+      <c r="B12" s="88"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="60"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="37"/>
+    </row>
+    <row r="13" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="18">
+        <v>6</v>
+      </c>
+      <c r="B13" s="88"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="59"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="36"/>
+    </row>
+    <row r="14" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="19">
+        <v>7</v>
+      </c>
+      <c r="B14" s="88"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="89"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="60"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="37"/>
+    </row>
+    <row r="15" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="18">
+        <v>8</v>
+      </c>
+      <c r="B15" s="88"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="89"/>
+      <c r="J15" s="89"/>
+      <c r="K15" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="59"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="36"/>
+    </row>
+    <row r="16" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="19">
+        <v>9</v>
+      </c>
+      <c r="B16" s="88"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="89"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="60"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="37"/>
+    </row>
+    <row r="17" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="18">
+        <v>10</v>
+      </c>
+      <c r="B17" s="88"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="89"/>
+      <c r="J17" s="89"/>
+      <c r="K17" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="59"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="36"/>
+    </row>
+    <row r="18" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="19">
+        <v>11</v>
+      </c>
+      <c r="B18" s="88"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="89"/>
+      <c r="K18" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="60"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="37"/>
+    </row>
+    <row r="19" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="18">
+        <v>12</v>
+      </c>
+      <c r="B19" s="88"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="89"/>
+      <c r="J19" s="89"/>
+      <c r="K19" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="59"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="36"/>
+    </row>
+    <row r="20" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="19">
+        <v>13</v>
+      </c>
+      <c r="B20" s="88"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="89"/>
+      <c r="H20" s="89"/>
+      <c r="I20" s="89"/>
+      <c r="J20" s="89"/>
+      <c r="K20" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="60"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="37"/>
+    </row>
+    <row r="21" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="18">
+        <v>14</v>
+      </c>
+      <c r="B21" s="88"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="89"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="59"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="36"/>
+    </row>
+    <row r="22" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="19">
+        <v>15</v>
+      </c>
+      <c r="B22" s="88"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="89"/>
+      <c r="H22" s="89"/>
+      <c r="I22" s="89"/>
+      <c r="J22" s="89"/>
+      <c r="K22" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="60"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="37"/>
+    </row>
+    <row r="23" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="18">
+        <v>16</v>
+      </c>
+      <c r="B23" s="88"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="89"/>
+      <c r="I23" s="89"/>
+      <c r="J23" s="89"/>
+      <c r="K23" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="59"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="36"/>
+    </row>
+    <row r="24" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="19">
+        <v>17</v>
+      </c>
+      <c r="B24" s="88"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="89"/>
+      <c r="K24" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="60"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="37"/>
+    </row>
+    <row r="25" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="18">
+        <v>18</v>
+      </c>
+      <c r="B25" s="88"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="89"/>
+      <c r="H25" s="89"/>
+      <c r="I25" s="89"/>
+      <c r="J25" s="89"/>
+      <c r="K25" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="59"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="36"/>
+    </row>
+    <row r="26" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="19">
+        <v>19</v>
+      </c>
+      <c r="B26" s="88"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="89"/>
+      <c r="H26" s="89"/>
+      <c r="I26" s="89"/>
+      <c r="J26" s="89"/>
+      <c r="K26" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="60"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="37"/>
+    </row>
+    <row r="27" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="18">
+        <v>20</v>
+      </c>
+      <c r="B27" s="88"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="89"/>
+      <c r="I27" s="89"/>
+      <c r="J27" s="89"/>
+      <c r="K27" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="59"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="36"/>
+    </row>
+    <row r="28" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="19">
+        <v>21</v>
+      </c>
+      <c r="B28" s="88"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="89"/>
+      <c r="G28" s="89"/>
+      <c r="H28" s="89"/>
+      <c r="I28" s="89"/>
+      <c r="J28" s="89"/>
+      <c r="K28" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="60"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="37"/>
+    </row>
+    <row r="29" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="18">
+        <v>22</v>
+      </c>
+      <c r="B29" s="88"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="89"/>
+      <c r="H29" s="89"/>
+      <c r="I29" s="89"/>
+      <c r="J29" s="89"/>
+      <c r="K29" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="59"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="36"/>
+    </row>
+    <row r="30" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="19">
+        <v>23</v>
+      </c>
+      <c r="B30" s="88"/>
+      <c r="C30" s="79"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="89"/>
+      <c r="F30" s="89"/>
+      <c r="G30" s="89"/>
+      <c r="H30" s="89"/>
+      <c r="I30" s="89"/>
+      <c r="J30" s="89"/>
+      <c r="K30" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="60"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="37"/>
+    </row>
+    <row r="31" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="18">
+        <v>24</v>
+      </c>
+      <c r="B31" s="88"/>
+      <c r="C31" s="79"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="89"/>
+      <c r="H31" s="89"/>
+      <c r="I31" s="89"/>
+      <c r="J31" s="89"/>
+      <c r="K31" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="59"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="36"/>
+    </row>
+    <row r="32" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="19">
+        <v>25</v>
+      </c>
+      <c r="B32" s="88"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="60"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="37"/>
+    </row>
+    <row r="33" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="18">
+        <v>26</v>
+      </c>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="59"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="36"/>
+    </row>
+    <row r="34" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="19">
+        <v>27</v>
+      </c>
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="60"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="37"/>
+    </row>
+    <row r="35" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="18">
+        <v>28</v>
+      </c>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="59"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="36"/>
+    </row>
+    <row r="36" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="19">
+        <v>29</v>
+      </c>
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="60"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="37"/>
+    </row>
+    <row r="37" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="18">
+        <v>30</v>
+      </c>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L37" s="59"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="36"/>
+    </row>
+    <row r="38" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="19">
+        <v>31</v>
+      </c>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="60"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="37"/>
+    </row>
+    <row r="39" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="18">
+        <v>32</v>
+      </c>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="59"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="36"/>
+    </row>
+    <row r="40" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="19">
+        <v>33</v>
+      </c>
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="60"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="37"/>
+    </row>
+    <row r="41" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="18">
+        <v>34</v>
+      </c>
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L41" s="59"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="36"/>
+    </row>
+    <row r="42" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="19">
+        <v>35</v>
+      </c>
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L42" s="60"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="37"/>
+    </row>
+    <row r="43" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="18">
+        <v>36</v>
+      </c>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L43" s="59"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="36"/>
+    </row>
+    <row r="44" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="19">
+        <v>37</v>
+      </c>
+      <c r="B44" s="41"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L44" s="60"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="37"/>
+    </row>
+    <row r="45" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="18">
+        <v>38</v>
+      </c>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L45" s="59"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="36"/>
+    </row>
+    <row r="46" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="19">
+        <v>39</v>
+      </c>
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L46" s="60"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="37"/>
+    </row>
+    <row r="47" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="18">
+        <v>40</v>
+      </c>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="33"/>
+      <c r="K47" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L47" s="59"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="36"/>
+    </row>
+    <row r="48" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="19">
+        <v>41</v>
+      </c>
+      <c r="B48" s="41"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L48" s="60"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="37"/>
+    </row>
+    <row r="49" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="18">
+        <v>42</v>
+      </c>
+      <c r="B49" s="42"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="33"/>
+      <c r="K49" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L49" s="59"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="36"/>
+    </row>
+    <row r="50" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="19">
+        <v>43</v>
+      </c>
+      <c r="B50" s="41"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L50" s="60"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="37"/>
+    </row>
+    <row r="51" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="18">
+        <v>44</v>
+      </c>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="33"/>
+      <c r="K51" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L51" s="59"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="36"/>
+    </row>
+    <row r="52" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="19">
+        <v>45</v>
+      </c>
+      <c r="B52" s="41"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L52" s="60"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="37"/>
+    </row>
+    <row r="53" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="18">
+        <v>46</v>
+      </c>
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="33"/>
+      <c r="K53" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L53" s="59"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="36"/>
+    </row>
+    <row r="54" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="19">
+        <v>47</v>
+      </c>
+      <c r="B54" s="41"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L54" s="60"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="37"/>
+    </row>
+    <row r="55" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="18">
+        <v>48</v>
+      </c>
+      <c r="B55" s="42"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="33"/>
+      <c r="K55" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L55" s="59"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="36"/>
+    </row>
+    <row r="56" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="19">
+        <v>49</v>
+      </c>
+      <c r="B56" s="41"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L56" s="60"/>
+      <c r="M56" s="12"/>
+      <c r="N56" s="37"/>
+    </row>
+    <row r="57" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="44">
+        <v>50</v>
+      </c>
+      <c r="B57" s="45"/>
+      <c r="C57" s="45"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="46"/>
+      <c r="I57" s="47"/>
+      <c r="J57" s="48"/>
+      <c r="K57" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L57" s="61"/>
+      <c r="M57" s="49"/>
+      <c r="N57" s="50"/>
+    </row>
+    <row r="58" spans="1:14" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="26"/>
+      <c r="B58" s="51"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="51"/>
+      <c r="E58" s="51"/>
+      <c r="F58" s="51"/>
+      <c r="G58" s="51"/>
+      <c r="H58" s="51"/>
+      <c r="I58" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="J58" s="53"/>
+      <c r="K58" s="53">
+        <f>SUM(K8:K57)</f>
+        <v>22.99</v>
+      </c>
+      <c r="L58" s="52"/>
+      <c r="M58" s="27"/>
+      <c r="N58" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="J4:N4"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B8:C16 B33:C57 B21:C31">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="J4" r:id="rId1" xr:uid="{AF732120-1241-A14C-AE40-49854CF39F70}"/>
+  </hyperlinks>
+  <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
+  <pageMargins left="0.2" right="0.2" top="0.25" bottom="0.25" header="0.3" footer="0.05"/>
+  <pageSetup paperSize="5" scale="42" orientation="landscape" r:id="rId2"/>
+</worksheet>
 </file>
--- a/orders/project-supplies/ProjectSuppliesRequestForm_FLoRaCommunications_Order4.xlsx
+++ b/orders/project-supplies/ProjectSuppliesRequestForm_FLoRaCommunications_Order4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Cam/Documents/flora-git/flora-hardware/orders/project-supplies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63535496-4A26-4744-A25C-ED81F8E8972E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2354CB8E-185A-4F4D-8045-B517D0FA6ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="38400" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="38400" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mouser" sheetId="1" r:id="rId1"/>
@@ -961,7 +961,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1128,14 +1128,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1151,7 +1146,6 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -1483,8 +1477,8 @@
   </sheetPr>
   <dimension ref="A2:N58"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1524,7 +1518,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="70"/>
-      <c r="D3" s="83"/>
+      <c r="D3" s="78"/>
       <c r="E3" s="72" t="s">
         <v>22</v>
       </c>
@@ -1552,7 +1546,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="71"/>
-      <c r="D4" s="82"/>
+      <c r="D4" s="77"/>
       <c r="E4" s="40">
         <f ca="1">TODAY()</f>
         <v>45599</v>
@@ -1601,11 +1595,11 @@
       <c r="I6" s="9"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="84" t="s">
+      <c r="L6" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="85"/>
-      <c r="N6" s="86"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="81"/>
     </row>
     <row r="7" spans="1:14" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
@@ -1655,29 +1649,29 @@
       <c r="A8" s="19">
         <v>1</v>
       </c>
-      <c r="B8" s="78">
+      <c r="B8" s="75">
         <v>20</v>
       </c>
-      <c r="C8" s="79"/>
-      <c r="D8" s="74" t="s">
+      <c r="C8" s="76"/>
+      <c r="D8" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="74" t="s">
+      <c r="E8" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="87" t="s">
+      <c r="F8" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="74" t="s">
+      <c r="G8" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="80" t="s">
+      <c r="H8" s="85" t="s">
         <v>125</v>
       </c>
-      <c r="I8" s="74" t="s">
+      <c r="I8" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="74">
+      <c r="J8" s="83">
         <v>0.113</v>
       </c>
       <c r="K8" s="63">
@@ -1692,29 +1686,29 @@
       <c r="A9" s="18">
         <v>2</v>
       </c>
-      <c r="B9" s="78">
+      <c r="B9" s="75">
         <v>10</v>
       </c>
-      <c r="C9" s="79"/>
-      <c r="D9" s="74" t="s">
+      <c r="C9" s="76"/>
+      <c r="D9" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="74" t="s">
+      <c r="E9" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="87" t="s">
+      <c r="F9" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="74" t="s">
+      <c r="G9" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="80" t="s">
+      <c r="H9" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="74" t="s">
+      <c r="I9" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="74">
+      <c r="J9" s="83">
         <v>0.19600000000000001</v>
       </c>
       <c r="K9" s="63">
@@ -1729,29 +1723,29 @@
       <c r="A10" s="19">
         <v>3</v>
       </c>
-      <c r="B10" s="78">
+      <c r="B10" s="75">
         <v>10</v>
       </c>
-      <c r="C10" s="79"/>
-      <c r="D10" s="74" t="s">
+      <c r="C10" s="76"/>
+      <c r="D10" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="74" t="s">
+      <c r="E10" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="87" t="s">
+      <c r="F10" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="74" t="s">
+      <c r="G10" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="80" t="s">
+      <c r="H10" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="74" t="s">
+      <c r="I10" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="J10" s="74">
+      <c r="J10" s="83">
         <v>0.30499999999999999</v>
       </c>
       <c r="K10" s="63">
@@ -1766,29 +1760,29 @@
       <c r="A11" s="18">
         <v>4</v>
       </c>
-      <c r="B11" s="78">
+      <c r="B11" s="75">
         <v>10</v>
       </c>
-      <c r="C11" s="79"/>
-      <c r="D11" s="74" t="s">
+      <c r="C11" s="76"/>
+      <c r="D11" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="74" t="s">
+      <c r="E11" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="74" t="s">
+      <c r="F11" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="74" t="s">
+      <c r="G11" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="80" t="s">
+      <c r="H11" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="I11" s="74" t="s">
+      <c r="I11" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="74">
+      <c r="J11" s="83">
         <v>0.157</v>
       </c>
       <c r="K11" s="63">
@@ -1803,29 +1797,29 @@
       <c r="A12" s="19">
         <v>5</v>
       </c>
-      <c r="B12" s="78">
+      <c r="B12" s="75">
         <v>3</v>
       </c>
-      <c r="C12" s="79"/>
-      <c r="D12" s="74" t="s">
+      <c r="C12" s="76"/>
+      <c r="D12" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="74" t="s">
+      <c r="E12" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="87" t="s">
+      <c r="F12" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="74" t="s">
+      <c r="G12" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="80" t="s">
+      <c r="H12" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="I12" s="74" t="s">
+      <c r="I12" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="J12" s="74">
+      <c r="J12" s="83">
         <v>2.04</v>
       </c>
       <c r="K12" s="63">
@@ -1840,29 +1834,29 @@
       <c r="A13" s="18">
         <v>6</v>
       </c>
-      <c r="B13" s="78">
+      <c r="B13" s="75">
         <v>10</v>
       </c>
-      <c r="C13" s="79"/>
-      <c r="D13" s="74" t="s">
+      <c r="C13" s="76"/>
+      <c r="D13" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="74" t="s">
+      <c r="E13" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="87" t="s">
+      <c r="F13" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="74" t="s">
+      <c r="G13" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="80" t="s">
+      <c r="H13" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="I13" s="74" t="s">
+      <c r="I13" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="J13" s="74">
+      <c r="J13" s="83">
         <v>0.14499999999999999</v>
       </c>
       <c r="K13" s="63">
@@ -1877,29 +1871,29 @@
       <c r="A14" s="19">
         <v>7</v>
       </c>
-      <c r="B14" s="78">
+      <c r="B14" s="75">
         <v>2</v>
       </c>
-      <c r="C14" s="79"/>
-      <c r="D14" s="74" t="s">
+      <c r="C14" s="76"/>
+      <c r="D14" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="74" t="s">
+      <c r="E14" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="87" t="s">
+      <c r="F14" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="74" t="s">
+      <c r="G14" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="80" t="s">
+      <c r="H14" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="I14" s="74" t="s">
+      <c r="I14" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="J14" s="74">
+      <c r="J14" s="83">
         <v>2.58</v>
       </c>
       <c r="K14" s="63">
@@ -1914,29 +1908,29 @@
       <c r="A15" s="18">
         <v>8</v>
       </c>
-      <c r="B15" s="78">
+      <c r="B15" s="75">
         <v>2</v>
       </c>
-      <c r="C15" s="79"/>
-      <c r="D15" s="74" t="s">
+      <c r="C15" s="76"/>
+      <c r="D15" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="74" t="s">
+      <c r="E15" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="87" t="s">
+      <c r="F15" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="74" t="s">
+      <c r="G15" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="80" t="s">
+      <c r="H15" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="I15" s="74" t="s">
+      <c r="I15" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="J15" s="74">
+      <c r="J15" s="83">
         <v>1.07</v>
       </c>
       <c r="K15" s="63">
@@ -1951,29 +1945,29 @@
       <c r="A16" s="19">
         <v>9</v>
       </c>
-      <c r="B16" s="78">
+      <c r="B16" s="75">
         <v>2</v>
       </c>
-      <c r="C16" s="79"/>
-      <c r="D16" s="74" t="s">
+      <c r="C16" s="76"/>
+      <c r="D16" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="74" t="s">
+      <c r="E16" s="83" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="74" t="s">
+      <c r="F16" s="83" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="74" t="s">
+      <c r="G16" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="80" t="s">
+      <c r="H16" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="I16" s="74" t="s">
+      <c r="I16" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="J16" s="74">
+      <c r="J16" s="83">
         <v>0.52200000000000002</v>
       </c>
       <c r="K16" s="63">
@@ -1988,29 +1982,29 @@
       <c r="A17" s="18">
         <v>10</v>
       </c>
-      <c r="B17" s="76">
+      <c r="B17" s="75">
         <v>10</v>
       </c>
-      <c r="C17" s="77"/>
-      <c r="D17" s="74" t="s">
+      <c r="C17" s="76"/>
+      <c r="D17" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="74" t="s">
+      <c r="E17" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="74" t="s">
+      <c r="F17" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="G17" s="74" t="s">
+      <c r="G17" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="74" t="s">
+      <c r="H17" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="I17" s="74" t="s">
+      <c r="I17" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="J17" s="74">
+      <c r="J17" s="83">
         <v>0.193</v>
       </c>
       <c r="K17" s="63">
@@ -2025,29 +2019,29 @@
       <c r="A18" s="19">
         <v>11</v>
       </c>
-      <c r="B18" s="76">
+      <c r="B18" s="75">
         <v>10</v>
       </c>
-      <c r="C18" s="77"/>
-      <c r="D18" s="74" t="s">
+      <c r="C18" s="76"/>
+      <c r="D18" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="74" t="s">
+      <c r="E18" s="83" t="s">
         <v>71</v>
       </c>
-      <c r="F18" s="74" t="s">
+      <c r="F18" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="G18" s="74" t="s">
+      <c r="G18" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="74" t="s">
+      <c r="H18" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="I18" s="74" t="s">
+      <c r="I18" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="J18" s="74">
+      <c r="J18" s="83">
         <v>0.16</v>
       </c>
       <c r="K18" s="63">
@@ -2062,29 +2056,29 @@
       <c r="A19" s="18">
         <v>12</v>
       </c>
-      <c r="B19" s="76">
+      <c r="B19" s="75">
         <v>10</v>
       </c>
-      <c r="C19" s="77"/>
-      <c r="D19" s="74" t="s">
+      <c r="C19" s="76"/>
+      <c r="D19" s="83" t="s">
         <v>74</v>
       </c>
-      <c r="E19" s="74" t="s">
+      <c r="E19" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="F19" s="74" t="s">
+      <c r="F19" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="G19" s="74" t="s">
+      <c r="G19" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="H19" s="74" t="s">
+      <c r="H19" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="I19" s="74" t="s">
+      <c r="I19" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="J19" s="74">
+      <c r="J19" s="83">
         <v>0.16</v>
       </c>
       <c r="K19" s="63">
@@ -2099,29 +2093,29 @@
       <c r="A20" s="19">
         <v>13</v>
       </c>
-      <c r="B20" s="76">
+      <c r="B20" s="75">
         <v>15</v>
       </c>
-      <c r="C20" s="77"/>
-      <c r="D20" s="74" t="s">
+      <c r="C20" s="76"/>
+      <c r="D20" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="74" t="s">
+      <c r="E20" s="83" t="s">
         <v>79</v>
       </c>
-      <c r="F20" s="74" t="s">
+      <c r="F20" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="G20" s="74" t="s">
+      <c r="G20" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="74" t="s">
+      <c r="H20" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="I20" s="74" t="s">
+      <c r="I20" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="J20" s="74">
+      <c r="J20" s="83">
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="K20" s="63">
@@ -2136,29 +2130,29 @@
       <c r="A21" s="18">
         <v>14</v>
       </c>
-      <c r="B21" s="76">
+      <c r="B21" s="75">
         <v>10</v>
       </c>
-      <c r="C21" s="77"/>
-      <c r="D21" s="74" t="s">
+      <c r="C21" s="76"/>
+      <c r="D21" s="83" t="s">
         <v>82</v>
       </c>
-      <c r="E21" s="74" t="s">
+      <c r="E21" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="F21" s="74" t="s">
+      <c r="F21" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="G21" s="74" t="s">
+      <c r="G21" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="74" t="s">
+      <c r="H21" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="I21" s="74" t="s">
+      <c r="I21" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="J21" s="74">
+      <c r="J21" s="83">
         <v>1.9E-2</v>
       </c>
       <c r="K21" s="63">
@@ -2173,29 +2167,29 @@
       <c r="A22" s="19">
         <v>15</v>
       </c>
-      <c r="B22" s="76">
+      <c r="B22" s="75">
         <v>10</v>
       </c>
-      <c r="C22" s="77"/>
-      <c r="D22" s="74" t="s">
+      <c r="C22" s="76"/>
+      <c r="D22" s="83" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="74" t="s">
+      <c r="E22" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="F22" s="74" t="s">
+      <c r="F22" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="G22" s="74" t="s">
+      <c r="G22" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="H22" s="74" t="s">
+      <c r="H22" s="83" t="s">
         <v>89</v>
       </c>
-      <c r="I22" s="74" t="s">
+      <c r="I22" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="J22" s="74">
+      <c r="J22" s="83">
         <v>0.14499999999999999</v>
       </c>
       <c r="K22" s="63">
@@ -2210,29 +2204,29 @@
       <c r="A23" s="18">
         <v>16</v>
       </c>
-      <c r="B23" s="76">
+      <c r="B23" s="75">
         <v>10</v>
       </c>
-      <c r="C23" s="77"/>
-      <c r="D23" s="74" t="s">
+      <c r="C23" s="76"/>
+      <c r="D23" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="E23" s="74" t="s">
+      <c r="E23" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="F23" s="74" t="s">
+      <c r="F23" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="G23" s="74" t="s">
+      <c r="G23" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="H23" s="74" t="s">
+      <c r="H23" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="I23" s="74" t="s">
+      <c r="I23" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="J23" s="74">
+      <c r="J23" s="83">
         <v>0.14499999999999999</v>
       </c>
       <c r="K23" s="63">
@@ -2247,29 +2241,29 @@
       <c r="A24" s="19">
         <v>17</v>
       </c>
-      <c r="B24" s="76">
+      <c r="B24" s="75">
         <v>10</v>
       </c>
-      <c r="C24" s="77"/>
-      <c r="D24" s="74" t="s">
+      <c r="C24" s="76"/>
+      <c r="D24" s="83" t="s">
         <v>94</v>
       </c>
-      <c r="E24" s="74" t="s">
+      <c r="E24" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="F24" s="74" t="s">
+      <c r="F24" s="83" t="s">
         <v>126</v>
       </c>
-      <c r="G24" s="74" t="s">
+      <c r="G24" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="H24" s="74" t="s">
+      <c r="H24" s="83" t="s">
         <v>96</v>
       </c>
-      <c r="I24" s="81" t="s">
+      <c r="I24" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="J24" s="74">
+      <c r="J24" s="83">
         <v>0.23</v>
       </c>
       <c r="K24" s="63">
@@ -2284,29 +2278,29 @@
       <c r="A25" s="18">
         <v>18</v>
       </c>
-      <c r="B25" s="76">
+      <c r="B25" s="75">
         <v>10</v>
       </c>
-      <c r="C25" s="77"/>
-      <c r="D25" s="74" t="s">
+      <c r="C25" s="76"/>
+      <c r="D25" s="83" t="s">
         <v>97</v>
       </c>
-      <c r="E25" s="74" t="s">
+      <c r="E25" s="83" t="s">
         <v>98</v>
       </c>
-      <c r="F25" s="74" t="s">
+      <c r="F25" s="83" t="s">
         <v>99</v>
       </c>
-      <c r="G25" s="74" t="s">
+      <c r="G25" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="H25" s="74" t="s">
+      <c r="H25" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="I25" s="74" t="s">
+      <c r="I25" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="J25" s="74">
+      <c r="J25" s="83">
         <v>0.14499999999999999</v>
       </c>
       <c r="K25" s="63">
@@ -2321,29 +2315,29 @@
       <c r="A26" s="19">
         <v>19</v>
       </c>
-      <c r="B26" s="76">
+      <c r="B26" s="75">
         <v>20</v>
       </c>
-      <c r="C26" s="77"/>
-      <c r="D26" s="74" t="s">
+      <c r="C26" s="76"/>
+      <c r="D26" s="83" t="s">
         <v>101</v>
       </c>
-      <c r="E26" s="74" t="s">
+      <c r="E26" s="83" t="s">
         <v>102</v>
       </c>
-      <c r="F26" s="74" t="s">
+      <c r="F26" s="83" t="s">
         <v>103</v>
       </c>
-      <c r="G26" s="74" t="s">
+      <c r="G26" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="H26" s="74" t="s">
+      <c r="H26" s="83" t="s">
         <v>104</v>
       </c>
-      <c r="I26" s="74" t="s">
+      <c r="I26" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="J26" s="74">
+      <c r="J26" s="83">
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="K26" s="63">
@@ -2358,29 +2352,29 @@
       <c r="A27" s="18">
         <v>20</v>
       </c>
-      <c r="B27" s="76">
+      <c r="B27" s="75">
         <v>10</v>
       </c>
-      <c r="C27" s="77"/>
-      <c r="D27" s="74" t="s">
+      <c r="C27" s="76"/>
+      <c r="D27" s="83" t="s">
         <v>105</v>
       </c>
-      <c r="E27" s="74" t="s">
+      <c r="E27" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="F27" s="74" t="s">
+      <c r="F27" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="G27" s="74" t="s">
+      <c r="G27" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="H27" s="74" t="s">
+      <c r="H27" s="83" t="s">
         <v>108</v>
       </c>
-      <c r="I27" s="74" t="s">
+      <c r="I27" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="J27" s="74">
+      <c r="J27" s="83">
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="K27" s="63">
@@ -2395,29 +2389,29 @@
       <c r="A28" s="19">
         <v>21</v>
       </c>
-      <c r="B28" s="76">
+      <c r="B28" s="75">
         <v>10</v>
       </c>
-      <c r="C28" s="77"/>
-      <c r="D28" s="74" t="s">
+      <c r="C28" s="76"/>
+      <c r="D28" s="83" t="s">
         <v>109</v>
       </c>
-      <c r="E28" s="74" t="s">
+      <c r="E28" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="F28" s="74" t="s">
+      <c r="F28" s="83" t="s">
         <v>111</v>
       </c>
-      <c r="G28" s="74" t="s">
+      <c r="G28" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="H28" s="74" t="s">
+      <c r="H28" s="83" t="s">
         <v>112</v>
       </c>
-      <c r="I28" s="74" t="s">
+      <c r="I28" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="J28" s="74">
+      <c r="J28" s="83">
         <v>0.14499999999999999</v>
       </c>
       <c r="K28" s="63">
@@ -2432,29 +2426,29 @@
       <c r="A29" s="18">
         <v>22</v>
       </c>
-      <c r="B29" s="76">
+      <c r="B29" s="75">
         <v>10</v>
       </c>
-      <c r="C29" s="77"/>
-      <c r="D29" s="74" t="s">
+      <c r="C29" s="76"/>
+      <c r="D29" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="E29" s="74" t="s">
+      <c r="E29" s="83" t="s">
         <v>114</v>
       </c>
-      <c r="F29" s="74" t="s">
+      <c r="F29" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="G29" s="74" t="s">
+      <c r="G29" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="H29" s="74" t="s">
+      <c r="H29" s="83" t="s">
         <v>116</v>
       </c>
-      <c r="I29" s="74" t="s">
+      <c r="I29" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="J29" s="74">
+      <c r="J29" s="83">
         <v>0.16</v>
       </c>
       <c r="K29" s="63">
@@ -2469,29 +2463,29 @@
       <c r="A30" s="19">
         <v>23</v>
       </c>
-      <c r="B30" s="76">
+      <c r="B30" s="75">
         <v>10</v>
       </c>
-      <c r="C30" s="77"/>
-      <c r="D30" s="74" t="s">
+      <c r="C30" s="76"/>
+      <c r="D30" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="E30" s="74" t="s">
+      <c r="E30" s="83" t="s">
         <v>118</v>
       </c>
-      <c r="F30" s="74" t="s">
+      <c r="F30" s="83" t="s">
         <v>119</v>
       </c>
-      <c r="G30" s="74" t="s">
+      <c r="G30" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="H30" s="74" t="s">
+      <c r="H30" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="I30" s="74" t="s">
+      <c r="I30" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="J30" s="74">
+      <c r="J30" s="83">
         <v>0.14499999999999999</v>
       </c>
       <c r="K30" s="63">
@@ -2506,29 +2500,29 @@
       <c r="A31" s="18">
         <v>24</v>
       </c>
-      <c r="B31" s="76">
+      <c r="B31" s="75">
         <v>10</v>
       </c>
-      <c r="C31" s="77"/>
-      <c r="D31" s="74" t="s">
+      <c r="C31" s="76"/>
+      <c r="D31" s="83" t="s">
         <v>121</v>
       </c>
-      <c r="E31" s="74" t="s">
+      <c r="E31" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="F31" s="74" t="s">
+      <c r="F31" s="83" t="s">
         <v>123</v>
       </c>
-      <c r="G31" s="74" t="s">
+      <c r="G31" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="H31" s="74" t="s">
+      <c r="H31" s="83" t="s">
         <v>124</v>
       </c>
-      <c r="I31" s="74" t="s">
+      <c r="I31" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="J31" s="74">
+      <c r="J31" s="83">
         <v>0.16</v>
       </c>
       <c r="K31" s="63">
@@ -2543,6 +2537,15 @@
       <c r="A32" s="19">
         <v>25</v>
       </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="63"/>
       <c r="K32" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3137,7 +3140,7 @@
   </sheetPr>
   <dimension ref="A2:N58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -3178,7 +3181,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="70"/>
-      <c r="D3" s="83"/>
+      <c r="D3" s="78"/>
       <c r="E3" s="72" t="s">
         <v>22</v>
       </c>
@@ -3206,7 +3209,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="71"/>
-      <c r="D4" s="82"/>
+      <c r="D4" s="77"/>
       <c r="E4" s="40">
         <f ca="1">TODAY()</f>
         <v>45599</v>
@@ -3255,11 +3258,11 @@
       <c r="I6" s="9"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="84" t="s">
+      <c r="L6" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="85"/>
-      <c r="N6" s="86"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="81"/>
     </row>
     <row r="7" spans="1:14" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
@@ -3309,29 +3312,29 @@
       <c r="A8" s="19">
         <v>1</v>
       </c>
-      <c r="B8" s="88">
+      <c r="B8" s="82">
         <v>1</v>
       </c>
-      <c r="C8" s="79"/>
-      <c r="D8" s="92" t="s">
+      <c r="C8" s="76"/>
+      <c r="D8" s="86" t="s">
         <v>132</v>
       </c>
-      <c r="E8" s="89" t="s">
+      <c r="E8" s="83" t="s">
         <v>130</v>
       </c>
-      <c r="F8" s="90" t="s">
+      <c r="F8" s="84" t="s">
         <v>128</v>
       </c>
-      <c r="G8" s="89" t="s">
+      <c r="G8" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="91" t="s">
+      <c r="H8" s="85" t="s">
         <v>129</v>
       </c>
-      <c r="I8" s="89" t="s">
+      <c r="I8" s="83" t="s">
         <v>130</v>
       </c>
-      <c r="J8" s="89">
+      <c r="J8" s="83">
         <v>22.99</v>
       </c>
       <c r="K8" s="63">
@@ -3346,15 +3349,15 @@
       <c r="A9" s="18">
         <v>2</v>
       </c>
-      <c r="B9" s="88"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="89"/>
-      <c r="J9" s="89"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
       <c r="K9" s="63">
         <f t="shared" ref="K9:K57" si="0">J9*B9</f>
         <v>0</v>
@@ -3367,15 +3370,15 @@
       <c r="A10" s="19">
         <v>3</v>
       </c>
-      <c r="B10" s="88"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="83"/>
       <c r="K10" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3388,15 +3391,15 @@
       <c r="A11" s="18">
         <v>4</v>
       </c>
-      <c r="B11" s="88"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="89"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="83"/>
       <c r="K11" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3409,15 +3412,15 @@
       <c r="A12" s="19">
         <v>5</v>
       </c>
-      <c r="B12" s="88"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="89"/>
-      <c r="J12" s="89"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="83"/>
       <c r="K12" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3430,15 +3433,15 @@
       <c r="A13" s="18">
         <v>6</v>
       </c>
-      <c r="B13" s="88"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="89"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="83"/>
       <c r="K13" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3451,15 +3454,15 @@
       <c r="A14" s="19">
         <v>7</v>
       </c>
-      <c r="B14" s="88"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="89"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="83"/>
       <c r="K14" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3472,15 +3475,15 @@
       <c r="A15" s="18">
         <v>8</v>
       </c>
-      <c r="B15" s="88"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="89"/>
-      <c r="J15" s="89"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="83"/>
       <c r="K15" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3493,15 +3496,15 @@
       <c r="A16" s="19">
         <v>9</v>
       </c>
-      <c r="B16" s="88"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="89"/>
-      <c r="J16" s="89"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="83"/>
       <c r="K16" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3514,15 +3517,15 @@
       <c r="A17" s="18">
         <v>10</v>
       </c>
-      <c r="B17" s="88"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="89"/>
-      <c r="J17" s="89"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="83"/>
+      <c r="I17" s="83"/>
+      <c r="J17" s="83"/>
       <c r="K17" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3535,15 +3538,15 @@
       <c r="A18" s="19">
         <v>11</v>
       </c>
-      <c r="B18" s="88"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="89"/>
-      <c r="I18" s="89"/>
-      <c r="J18" s="89"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="83"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="83"/>
       <c r="K18" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3556,15 +3559,15 @@
       <c r="A19" s="18">
         <v>12</v>
       </c>
-      <c r="B19" s="88"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="89"/>
-      <c r="J19" s="89"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="83"/>
       <c r="K19" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3577,15 +3580,15 @@
       <c r="A20" s="19">
         <v>13</v>
       </c>
-      <c r="B20" s="88"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="89"/>
-      <c r="I20" s="89"/>
-      <c r="J20" s="89"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="83"/>
       <c r="K20" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3598,15 +3601,15 @@
       <c r="A21" s="18">
         <v>14</v>
       </c>
-      <c r="B21" s="88"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="83"/>
+      <c r="J21" s="83"/>
       <c r="K21" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3619,15 +3622,15 @@
       <c r="A22" s="19">
         <v>15</v>
       </c>
-      <c r="B22" s="88"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="89"/>
-      <c r="I22" s="89"/>
-      <c r="J22" s="89"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="83"/>
+      <c r="I22" s="83"/>
+      <c r="J22" s="83"/>
       <c r="K22" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3640,15 +3643,15 @@
       <c r="A23" s="18">
         <v>16</v>
       </c>
-      <c r="B23" s="88"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="89"/>
-      <c r="H23" s="89"/>
-      <c r="I23" s="89"/>
-      <c r="J23" s="89"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="83"/>
+      <c r="J23" s="83"/>
       <c r="K23" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3661,15 +3664,15 @@
       <c r="A24" s="19">
         <v>17</v>
       </c>
-      <c r="B24" s="88"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="89"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="89"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="83"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="83"/>
       <c r="K24" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3682,15 +3685,15 @@
       <c r="A25" s="18">
         <v>18</v>
       </c>
-      <c r="B25" s="88"/>
-      <c r="C25" s="79"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="89"/>
-      <c r="I25" s="89"/>
-      <c r="J25" s="89"/>
+      <c r="B25" s="82"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="83"/>
+      <c r="J25" s="83"/>
       <c r="K25" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3703,15 +3706,15 @@
       <c r="A26" s="19">
         <v>19</v>
       </c>
-      <c r="B26" s="88"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="89"/>
-      <c r="H26" s="89"/>
-      <c r="I26" s="89"/>
-      <c r="J26" s="89"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="83"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="83"/>
+      <c r="J26" s="83"/>
       <c r="K26" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3724,15 +3727,15 @@
       <c r="A27" s="18">
         <v>20</v>
       </c>
-      <c r="B27" s="88"/>
-      <c r="C27" s="79"/>
-      <c r="D27" s="89"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="89"/>
-      <c r="H27" s="89"/>
-      <c r="I27" s="89"/>
-      <c r="J27" s="89"/>
+      <c r="B27" s="82"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="83"/>
+      <c r="J27" s="83"/>
       <c r="K27" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3745,15 +3748,15 @@
       <c r="A28" s="19">
         <v>21</v>
       </c>
-      <c r="B28" s="88"/>
-      <c r="C28" s="79"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="89"/>
-      <c r="I28" s="89"/>
-      <c r="J28" s="89"/>
+      <c r="B28" s="82"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="83"/>
+      <c r="F28" s="83"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="83"/>
+      <c r="I28" s="83"/>
+      <c r="J28" s="83"/>
       <c r="K28" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3766,15 +3769,15 @@
       <c r="A29" s="18">
         <v>22</v>
       </c>
-      <c r="B29" s="88"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="89"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="89"/>
-      <c r="G29" s="89"/>
-      <c r="H29" s="89"/>
-      <c r="I29" s="89"/>
-      <c r="J29" s="89"/>
+      <c r="B29" s="82"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="83"/>
+      <c r="F29" s="83"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="83"/>
+      <c r="I29" s="83"/>
+      <c r="J29" s="83"/>
       <c r="K29" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3787,15 +3790,15 @@
       <c r="A30" s="19">
         <v>23</v>
       </c>
-      <c r="B30" s="88"/>
-      <c r="C30" s="79"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="89"/>
-      <c r="G30" s="89"/>
-      <c r="H30" s="89"/>
-      <c r="I30" s="89"/>
-      <c r="J30" s="89"/>
+      <c r="B30" s="82"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="83"/>
+      <c r="F30" s="83"/>
+      <c r="G30" s="83"/>
+      <c r="H30" s="83"/>
+      <c r="I30" s="83"/>
+      <c r="J30" s="83"/>
       <c r="K30" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3808,15 +3811,15 @@
       <c r="A31" s="18">
         <v>24</v>
       </c>
-      <c r="B31" s="88"/>
-      <c r="C31" s="79"/>
-      <c r="D31" s="89"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="89"/>
-      <c r="H31" s="89"/>
-      <c r="I31" s="89"/>
-      <c r="J31" s="89"/>
+      <c r="B31" s="82"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="83"/>
+      <c r="E31" s="83"/>
+      <c r="F31" s="83"/>
+      <c r="G31" s="83"/>
+      <c r="H31" s="83"/>
+      <c r="I31" s="83"/>
+      <c r="J31" s="83"/>
       <c r="K31" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3829,7 +3832,7 @@
       <c r="A32" s="19">
         <v>25</v>
       </c>
-      <c r="B32" s="88"/>
+      <c r="B32" s="82"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>

--- a/orders/project-supplies/ProjectSuppliesRequestForm_FLoRaCommunications_Order4.xlsx
+++ b/orders/project-supplies/ProjectSuppliesRequestForm_FLoRaCommunications_Order4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Cam/Documents/flora-git/flora-hardware/orders/project-supplies/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a8a7dff0b441a3a2/Documents/GitHub/flora-hardware/orders/project-supplies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2354CB8E-185A-4F4D-8045-B517D0FA6ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{67C1C6E0-4A6E-4E90-BD3E-B89D76FAF38C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5641F017-9993-E341-A7BA-1902440A8958}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="38400" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mouser" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="129">
   <si>
     <t>Student Email:</t>
   </si>
@@ -167,18 +167,6 @@
   </si>
   <si>
     <t>0603</t>
-  </si>
-  <si>
-    <t>GRM32ER61E226KE15L</t>
-  </si>
-  <si>
-    <t>81-GRM32ER61E226KE15</t>
-  </si>
-  <si>
-    <t>https://www.mouser.ca/ProductDetail/Murata-Electronics/GRM32ER61E226KE15L?qs=CHiu0TXTCq%252Bo%252Bcqcz70txw%3D%3D</t>
-  </si>
-  <si>
-    <t>22uF Ceramic Capacitor - C17,C20,C21</t>
   </si>
   <si>
     <t>1210</t>
@@ -1101,56 +1089,56 @@
     <xf numFmtId="0" fontId="13" fillId="10" borderId="19" xfId="2" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1477,79 +1465,79 @@
   </sheetPr>
   <dimension ref="A2:N58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="3" width="12" style="3" customWidth="1"/>
     <col min="4" max="7" width="40" style="3" customWidth="1"/>
-    <col min="8" max="8" width="91.1640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="24.5" style="11" customWidth="1"/>
-    <col min="10" max="11" width="13.5" style="7" customWidth="1"/>
-    <col min="12" max="12" width="31.33203125" customWidth="1"/>
-    <col min="13" max="13" width="14.1640625" style="13" customWidth="1"/>
-    <col min="14" max="14" width="13.83203125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="91.140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="24.42578125" style="11" customWidth="1"/>
+    <col min="10" max="11" width="13.42578125" style="7" customWidth="1"/>
+    <col min="12" max="12" width="31.28515625" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" style="13" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-    </row>
-    <row r="3" spans="1:14" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+    </row>
+    <row r="3" spans="1:14" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="72" t="s">
+      <c r="C3" s="81"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="73"/>
+      <c r="F3" s="86"/>
       <c r="G3" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H3" s="64" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I3" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="65" t="s">
+      <c r="J3" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="67"/>
-    </row>
-    <row r="4" spans="1:14" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="78"/>
+    </row>
+    <row r="4" spans="1:14" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="77"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="84"/>
       <c r="E4" s="40">
         <f ca="1">TODAY()</f>
-        <v>45599</v>
+        <v>45611</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -1557,15 +1545,15 @@
       <c r="I4" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="68" t="s">
+      <c r="J4" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="67"/>
-    </row>
-    <row r="5" spans="1:14" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="78"/>
+    </row>
+    <row r="5" spans="1:14" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="1"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -1583,7 +1571,7 @@
       <c r="M5" s="25"/>
       <c r="N5" s="25"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1595,13 +1583,13 @@
       <c r="I6" s="9"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="79" t="s">
+      <c r="L6" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="80"/>
-      <c r="N6" s="81"/>
-    </row>
-    <row r="7" spans="1:14" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M6" s="74"/>
+      <c r="N6" s="75"/>
+    </row>
+    <row r="7" spans="1:14" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>8</v>
       </c>
@@ -1645,33 +1633,33 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="19">
         <v>1</v>
       </c>
-      <c r="B8" s="75">
+      <c r="B8" s="66">
         <v>20</v>
       </c>
-      <c r="C8" s="76"/>
-      <c r="D8" s="83" t="s">
+      <c r="C8" s="67"/>
+      <c r="D8" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="83" t="s">
+      <c r="E8" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="84" t="s">
+      <c r="F8" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="83" t="s">
+      <c r="G8" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="85" t="s">
-        <v>125</v>
-      </c>
-      <c r="I8" s="83" t="s">
+      <c r="H8" s="71" t="s">
+        <v>121</v>
+      </c>
+      <c r="I8" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="83">
+      <c r="J8" s="69">
         <v>0.113</v>
       </c>
       <c r="K8" s="63">
@@ -1682,33 +1670,33 @@
       <c r="M8" s="34"/>
       <c r="N8" s="35"/>
     </row>
-    <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="18">
         <v>2</v>
       </c>
-      <c r="B9" s="75">
+      <c r="B9" s="66">
         <v>10</v>
       </c>
-      <c r="C9" s="76"/>
-      <c r="D9" s="83" t="s">
+      <c r="C9" s="67"/>
+      <c r="D9" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="83" t="s">
+      <c r="E9" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="84" t="s">
+      <c r="F9" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="83" t="s">
+      <c r="G9" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="85" t="s">
+      <c r="H9" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="83" t="s">
+      <c r="I9" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="83">
+      <c r="J9" s="69">
         <v>0.19600000000000001</v>
       </c>
       <c r="K9" s="63">
@@ -1719,33 +1707,33 @@
       <c r="M9" s="17"/>
       <c r="N9" s="36"/>
     </row>
-    <row r="10" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="19">
         <v>3</v>
       </c>
-      <c r="B10" s="75">
+      <c r="B10" s="66">
         <v>10</v>
       </c>
-      <c r="C10" s="76"/>
-      <c r="D10" s="83" t="s">
+      <c r="C10" s="67"/>
+      <c r="D10" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="83" t="s">
+      <c r="E10" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="84" t="s">
+      <c r="F10" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="83" t="s">
+      <c r="G10" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="85" t="s">
+      <c r="H10" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="83" t="s">
+      <c r="I10" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="J10" s="83">
+      <c r="J10" s="69">
         <v>0.30499999999999999</v>
       </c>
       <c r="K10" s="63">
@@ -1756,33 +1744,33 @@
       <c r="M10" s="12"/>
       <c r="N10" s="37"/>
     </row>
-    <row r="11" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="18">
         <v>4</v>
       </c>
-      <c r="B11" s="75">
+      <c r="B11" s="66">
         <v>10</v>
       </c>
-      <c r="C11" s="76"/>
-      <c r="D11" s="83" t="s">
+      <c r="C11" s="67"/>
+      <c r="D11" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="83" t="s">
+      <c r="E11" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="83" t="s">
+      <c r="F11" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="83" t="s">
+      <c r="G11" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="85" t="s">
-        <v>63</v>
-      </c>
-      <c r="I11" s="83" t="s">
+      <c r="H11" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="83">
+      <c r="J11" s="69">
         <v>0.157</v>
       </c>
       <c r="K11" s="63">
@@ -1793,70 +1781,51 @@
       <c r="M11" s="17"/>
       <c r="N11" s="36"/>
     </row>
-    <row r="12" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="19">
         <v>5</v>
       </c>
-      <c r="B12" s="75">
-        <v>3</v>
-      </c>
-      <c r="C12" s="76"/>
-      <c r="D12" s="83" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="83" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="84" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="83" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="85" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" s="83" t="s">
-        <v>47</v>
-      </c>
-      <c r="J12" s="83">
-        <v>2.04</v>
-      </c>
-      <c r="K12" s="63">
-        <f t="shared" si="0"/>
-        <v>6.12</v>
-      </c>
+      <c r="B12" s="66"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="63"/>
       <c r="L12" s="60"/>
       <c r="M12" s="12"/>
       <c r="N12" s="37"/>
     </row>
-    <row r="13" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="18">
         <v>6</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="66">
         <v>10</v>
       </c>
-      <c r="C13" s="76"/>
-      <c r="D13" s="83" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="83" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="84" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="83" t="s">
+      <c r="C13" s="67"/>
+      <c r="D13" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="85" t="s">
-        <v>64</v>
-      </c>
-      <c r="I13" s="83" t="s">
+      <c r="H13" s="71" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="J13" s="83">
+      <c r="J13" s="69">
         <v>0.14499999999999999</v>
       </c>
       <c r="K13" s="63">
@@ -1867,33 +1836,33 @@
       <c r="M13" s="17"/>
       <c r="N13" s="36"/>
     </row>
-    <row r="14" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="19">
         <v>7</v>
       </c>
-      <c r="B14" s="75">
+      <c r="B14" s="66">
         <v>2</v>
       </c>
-      <c r="C14" s="76"/>
-      <c r="D14" s="83" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="83" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="84" t="s">
-        <v>53</v>
-      </c>
-      <c r="G14" s="83" t="s">
+      <c r="C14" s="67"/>
+      <c r="D14" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="85" t="s">
-        <v>61</v>
-      </c>
-      <c r="I14" s="83" t="s">
-        <v>47</v>
-      </c>
-      <c r="J14" s="83">
+      <c r="H14" s="71" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" s="69">
         <v>2.58</v>
       </c>
       <c r="K14" s="63">
@@ -1904,33 +1873,33 @@
       <c r="M14" s="12"/>
       <c r="N14" s="37"/>
     </row>
-    <row r="15" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="18">
         <v>8</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="66">
         <v>2</v>
       </c>
-      <c r="C15" s="76"/>
-      <c r="D15" s="83" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="83" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="84" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="83" t="s">
+      <c r="C15" s="67"/>
+      <c r="D15" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="85" t="s">
-        <v>62</v>
-      </c>
-      <c r="I15" s="83" t="s">
-        <v>47</v>
-      </c>
-      <c r="J15" s="83">
+      <c r="H15" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" s="69">
         <v>1.07</v>
       </c>
       <c r="K15" s="63">
@@ -1941,33 +1910,33 @@
       <c r="M15" s="17"/>
       <c r="N15" s="36"/>
     </row>
-    <row r="16" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="19">
         <v>9</v>
       </c>
-      <c r="B16" s="75">
+      <c r="B16" s="66">
         <v>2</v>
       </c>
-      <c r="C16" s="76"/>
-      <c r="D16" s="83" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="83" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="83" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" s="83" t="s">
+      <c r="C16" s="67"/>
+      <c r="D16" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="69" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="85" t="s">
-        <v>60</v>
-      </c>
-      <c r="I16" s="83" t="s">
+      <c r="H16" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="I16" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="J16" s="83">
+      <c r="J16" s="69">
         <v>0.52200000000000002</v>
       </c>
       <c r="K16" s="63">
@@ -1978,33 +1947,33 @@
       <c r="M16" s="12"/>
       <c r="N16" s="37"/>
     </row>
-    <row r="17" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="18">
         <v>10</v>
       </c>
-      <c r="B17" s="75">
+      <c r="B17" s="66">
         <v>10</v>
       </c>
-      <c r="C17" s="76"/>
-      <c r="D17" s="83" t="s">
+      <c r="C17" s="67"/>
+      <c r="D17" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="69" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="83" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="83" t="s">
-        <v>67</v>
-      </c>
-      <c r="G17" s="83" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" s="83" t="s">
-        <v>68</v>
-      </c>
-      <c r="I17" s="83" t="s">
-        <v>69</v>
-      </c>
-      <c r="J17" s="83">
+      <c r="J17" s="69">
         <v>0.193</v>
       </c>
       <c r="K17" s="63">
@@ -2015,33 +1984,33 @@
       <c r="M17" s="17"/>
       <c r="N17" s="36"/>
     </row>
-    <row r="18" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="19">
         <v>11</v>
       </c>
-      <c r="B18" s="75">
+      <c r="B18" s="66">
         <v>10</v>
       </c>
-      <c r="C18" s="76"/>
-      <c r="D18" s="83" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="83" t="s">
-        <v>71</v>
-      </c>
-      <c r="F18" s="83" t="s">
-        <v>72</v>
-      </c>
-      <c r="G18" s="83" t="s">
+      <c r="C18" s="67"/>
+      <c r="D18" s="69" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="69" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="83" t="s">
-        <v>73</v>
-      </c>
-      <c r="I18" s="83" t="s">
+      <c r="H18" s="69" t="s">
+        <v>69</v>
+      </c>
+      <c r="I18" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="J18" s="83">
+      <c r="J18" s="69">
         <v>0.16</v>
       </c>
       <c r="K18" s="63">
@@ -2052,33 +2021,33 @@
       <c r="M18" s="12"/>
       <c r="N18" s="37"/>
     </row>
-    <row r="19" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="18">
         <v>12</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="66">
         <v>10</v>
       </c>
-      <c r="C19" s="76"/>
-      <c r="D19" s="83" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19" s="83" t="s">
-        <v>75</v>
-      </c>
-      <c r="F19" s="83" t="s">
-        <v>76</v>
-      </c>
-      <c r="G19" s="83" t="s">
+      <c r="C19" s="67"/>
+      <c r="D19" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="H19" s="83" t="s">
-        <v>77</v>
-      </c>
-      <c r="I19" s="83" t="s">
+      <c r="H19" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="I19" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="J19" s="83">
+      <c r="J19" s="69">
         <v>0.16</v>
       </c>
       <c r="K19" s="63">
@@ -2089,33 +2058,33 @@
       <c r="M19" s="17"/>
       <c r="N19" s="36"/>
     </row>
-    <row r="20" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="19">
         <v>13</v>
       </c>
-      <c r="B20" s="75">
+      <c r="B20" s="66">
         <v>15</v>
       </c>
-      <c r="C20" s="76"/>
-      <c r="D20" s="83" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" s="83" t="s">
-        <v>79</v>
-      </c>
-      <c r="F20" s="83" t="s">
-        <v>80</v>
-      </c>
-      <c r="G20" s="83" t="s">
+      <c r="C20" s="67"/>
+      <c r="D20" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="83" t="s">
-        <v>81</v>
-      </c>
-      <c r="I20" s="83" t="s">
+      <c r="H20" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="I20" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="J20" s="83">
+      <c r="J20" s="69">
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="K20" s="63">
@@ -2126,33 +2095,33 @@
       <c r="M20" s="12"/>
       <c r="N20" s="37"/>
     </row>
-    <row r="21" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="18">
         <v>14</v>
       </c>
-      <c r="B21" s="75">
+      <c r="B21" s="66">
         <v>10</v>
       </c>
-      <c r="C21" s="76"/>
-      <c r="D21" s="83" t="s">
-        <v>82</v>
-      </c>
-      <c r="E21" s="83" t="s">
-        <v>83</v>
-      </c>
-      <c r="F21" s="83" t="s">
-        <v>84</v>
-      </c>
-      <c r="G21" s="83" t="s">
+      <c r="C21" s="67"/>
+      <c r="D21" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="69" t="s">
+        <v>80</v>
+      </c>
+      <c r="G21" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="83" t="s">
-        <v>85</v>
-      </c>
-      <c r="I21" s="83" t="s">
+      <c r="H21" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="I21" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="J21" s="83">
+      <c r="J21" s="69">
         <v>1.9E-2</v>
       </c>
       <c r="K21" s="63">
@@ -2163,33 +2132,33 @@
       <c r="M21" s="17"/>
       <c r="N21" s="36"/>
     </row>
-    <row r="22" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="19">
         <v>15</v>
       </c>
-      <c r="B22" s="75">
+      <c r="B22" s="66">
         <v>10</v>
       </c>
-      <c r="C22" s="76"/>
-      <c r="D22" s="83" t="s">
-        <v>86</v>
-      </c>
-      <c r="E22" s="83" t="s">
-        <v>87</v>
-      </c>
-      <c r="F22" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="G22" s="83" t="s">
+      <c r="C22" s="67"/>
+      <c r="D22" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" s="69" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="H22" s="83" t="s">
-        <v>89</v>
-      </c>
-      <c r="I22" s="83" t="s">
+      <c r="H22" s="69" t="s">
+        <v>85</v>
+      </c>
+      <c r="I22" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="J22" s="83">
+      <c r="J22" s="69">
         <v>0.14499999999999999</v>
       </c>
       <c r="K22" s="63">
@@ -2200,33 +2169,33 @@
       <c r="M22" s="12"/>
       <c r="N22" s="37"/>
     </row>
-    <row r="23" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="18">
         <v>16</v>
       </c>
-      <c r="B23" s="75">
+      <c r="B23" s="66">
         <v>10</v>
       </c>
-      <c r="C23" s="76"/>
-      <c r="D23" s="83" t="s">
-        <v>90</v>
-      </c>
-      <c r="E23" s="83" t="s">
-        <v>91</v>
-      </c>
-      <c r="F23" s="83" t="s">
-        <v>92</v>
-      </c>
-      <c r="G23" s="83" t="s">
+      <c r="C23" s="67"/>
+      <c r="D23" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" s="69" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23" s="69" t="s">
+        <v>88</v>
+      </c>
+      <c r="G23" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="H23" s="83" t="s">
-        <v>93</v>
-      </c>
-      <c r="I23" s="83" t="s">
+      <c r="H23" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="I23" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="J23" s="83">
+      <c r="J23" s="69">
         <v>0.14499999999999999</v>
       </c>
       <c r="K23" s="63">
@@ -2237,33 +2206,33 @@
       <c r="M23" s="17"/>
       <c r="N23" s="36"/>
     </row>
-    <row r="24" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="19">
         <v>17</v>
       </c>
-      <c r="B24" s="75">
+      <c r="B24" s="66">
         <v>10</v>
       </c>
-      <c r="C24" s="76"/>
-      <c r="D24" s="83" t="s">
-        <v>94</v>
-      </c>
-      <c r="E24" s="83" t="s">
-        <v>95</v>
-      </c>
-      <c r="F24" s="83" t="s">
-        <v>126</v>
-      </c>
-      <c r="G24" s="83" t="s">
+      <c r="C24" s="67"/>
+      <c r="D24" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="69" t="s">
+        <v>122</v>
+      </c>
+      <c r="G24" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="H24" s="83" t="s">
-        <v>96</v>
-      </c>
-      <c r="I24" s="74" t="s">
+      <c r="H24" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="I24" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="J24" s="83">
+      <c r="J24" s="69">
         <v>0.23</v>
       </c>
       <c r="K24" s="63">
@@ -2274,33 +2243,33 @@
       <c r="M24" s="12"/>
       <c r="N24" s="37"/>
     </row>
-    <row r="25" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="18">
         <v>18</v>
       </c>
-      <c r="B25" s="75">
+      <c r="B25" s="66">
         <v>10</v>
       </c>
-      <c r="C25" s="76"/>
-      <c r="D25" s="83" t="s">
-        <v>97</v>
-      </c>
-      <c r="E25" s="83" t="s">
-        <v>98</v>
-      </c>
-      <c r="F25" s="83" t="s">
-        <v>99</v>
-      </c>
-      <c r="G25" s="83" t="s">
+      <c r="C25" s="67"/>
+      <c r="D25" s="69" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="69" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="G25" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="H25" s="83" t="s">
-        <v>100</v>
-      </c>
-      <c r="I25" s="83" t="s">
+      <c r="H25" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="I25" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="J25" s="83">
+      <c r="J25" s="69">
         <v>0.14499999999999999</v>
       </c>
       <c r="K25" s="63">
@@ -2311,33 +2280,33 @@
       <c r="M25" s="17"/>
       <c r="N25" s="36"/>
     </row>
-    <row r="26" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="19">
         <v>19</v>
       </c>
-      <c r="B26" s="75">
+      <c r="B26" s="66">
         <v>20</v>
       </c>
-      <c r="C26" s="76"/>
-      <c r="D26" s="83" t="s">
-        <v>101</v>
-      </c>
-      <c r="E26" s="83" t="s">
-        <v>102</v>
-      </c>
-      <c r="F26" s="83" t="s">
-        <v>103</v>
-      </c>
-      <c r="G26" s="83" t="s">
+      <c r="C26" s="67"/>
+      <c r="D26" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" s="69" t="s">
+        <v>98</v>
+      </c>
+      <c r="F26" s="69" t="s">
+        <v>99</v>
+      </c>
+      <c r="G26" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="H26" s="83" t="s">
-        <v>104</v>
-      </c>
-      <c r="I26" s="83" t="s">
+      <c r="H26" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="I26" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="J26" s="83">
+      <c r="J26" s="69">
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="K26" s="63">
@@ -2348,33 +2317,33 @@
       <c r="M26" s="12"/>
       <c r="N26" s="37"/>
     </row>
-    <row r="27" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="18">
         <v>20</v>
       </c>
-      <c r="B27" s="75">
+      <c r="B27" s="66">
         <v>10</v>
       </c>
-      <c r="C27" s="76"/>
-      <c r="D27" s="83" t="s">
-        <v>105</v>
-      </c>
-      <c r="E27" s="83" t="s">
-        <v>106</v>
-      </c>
-      <c r="F27" s="83" t="s">
-        <v>107</v>
-      </c>
-      <c r="G27" s="83" t="s">
+      <c r="C27" s="67"/>
+      <c r="D27" s="69" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="F27" s="69" t="s">
+        <v>103</v>
+      </c>
+      <c r="G27" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="H27" s="83" t="s">
-        <v>108</v>
-      </c>
-      <c r="I27" s="83" t="s">
+      <c r="H27" s="69" t="s">
+        <v>104</v>
+      </c>
+      <c r="I27" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="J27" s="83">
+      <c r="J27" s="69">
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="K27" s="63">
@@ -2385,33 +2354,33 @@
       <c r="M27" s="17"/>
       <c r="N27" s="36"/>
     </row>
-    <row r="28" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="19">
         <v>21</v>
       </c>
-      <c r="B28" s="75">
+      <c r="B28" s="66">
         <v>10</v>
       </c>
-      <c r="C28" s="76"/>
-      <c r="D28" s="83" t="s">
-        <v>109</v>
-      </c>
-      <c r="E28" s="83" t="s">
-        <v>110</v>
-      </c>
-      <c r="F28" s="83" t="s">
-        <v>111</v>
-      </c>
-      <c r="G28" s="83" t="s">
+      <c r="C28" s="67"/>
+      <c r="D28" s="69" t="s">
+        <v>105</v>
+      </c>
+      <c r="E28" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="F28" s="69" t="s">
+        <v>107</v>
+      </c>
+      <c r="G28" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="H28" s="83" t="s">
-        <v>112</v>
-      </c>
-      <c r="I28" s="83" t="s">
+      <c r="H28" s="69" t="s">
+        <v>108</v>
+      </c>
+      <c r="I28" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="J28" s="83">
+      <c r="J28" s="69">
         <v>0.14499999999999999</v>
       </c>
       <c r="K28" s="63">
@@ -2422,33 +2391,33 @@
       <c r="M28" s="12"/>
       <c r="N28" s="37"/>
     </row>
-    <row r="29" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="18">
         <v>22</v>
       </c>
-      <c r="B29" s="75">
+      <c r="B29" s="66">
         <v>10</v>
       </c>
-      <c r="C29" s="76"/>
-      <c r="D29" s="83" t="s">
-        <v>113</v>
-      </c>
-      <c r="E29" s="83" t="s">
-        <v>114</v>
-      </c>
-      <c r="F29" s="83" t="s">
-        <v>115</v>
-      </c>
-      <c r="G29" s="83" t="s">
+      <c r="C29" s="67"/>
+      <c r="D29" s="69" t="s">
+        <v>109</v>
+      </c>
+      <c r="E29" s="69" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" s="69" t="s">
+        <v>111</v>
+      </c>
+      <c r="G29" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="H29" s="83" t="s">
-        <v>116</v>
-      </c>
-      <c r="I29" s="83" t="s">
+      <c r="H29" s="69" t="s">
+        <v>112</v>
+      </c>
+      <c r="I29" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="J29" s="83">
+      <c r="J29" s="69">
         <v>0.16</v>
       </c>
       <c r="K29" s="63">
@@ -2459,33 +2428,33 @@
       <c r="M29" s="17"/>
       <c r="N29" s="36"/>
     </row>
-    <row r="30" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="19">
         <v>23</v>
       </c>
-      <c r="B30" s="75">
+      <c r="B30" s="66">
         <v>10</v>
       </c>
-      <c r="C30" s="76"/>
-      <c r="D30" s="83" t="s">
-        <v>117</v>
-      </c>
-      <c r="E30" s="83" t="s">
-        <v>118</v>
-      </c>
-      <c r="F30" s="83" t="s">
-        <v>119</v>
-      </c>
-      <c r="G30" s="83" t="s">
+      <c r="C30" s="67"/>
+      <c r="D30" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="E30" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="F30" s="69" t="s">
+        <v>115</v>
+      </c>
+      <c r="G30" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="H30" s="83" t="s">
-        <v>120</v>
-      </c>
-      <c r="I30" s="83" t="s">
+      <c r="H30" s="69" t="s">
+        <v>116</v>
+      </c>
+      <c r="I30" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="J30" s="83">
+      <c r="J30" s="69">
         <v>0.14499999999999999</v>
       </c>
       <c r="K30" s="63">
@@ -2496,33 +2465,33 @@
       <c r="M30" s="12"/>
       <c r="N30" s="37"/>
     </row>
-    <row r="31" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="18">
         <v>24</v>
       </c>
-      <c r="B31" s="75">
+      <c r="B31" s="66">
         <v>10</v>
       </c>
-      <c r="C31" s="76"/>
-      <c r="D31" s="83" t="s">
-        <v>121</v>
-      </c>
-      <c r="E31" s="83" t="s">
-        <v>122</v>
-      </c>
-      <c r="F31" s="83" t="s">
-        <v>123</v>
-      </c>
-      <c r="G31" s="83" t="s">
+      <c r="C31" s="67"/>
+      <c r="D31" s="69" t="s">
+        <v>117</v>
+      </c>
+      <c r="E31" s="69" t="s">
+        <v>118</v>
+      </c>
+      <c r="F31" s="69" t="s">
+        <v>119</v>
+      </c>
+      <c r="G31" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="H31" s="83" t="s">
-        <v>124</v>
-      </c>
-      <c r="I31" s="83" t="s">
+      <c r="H31" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="I31" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="J31" s="83">
+      <c r="J31" s="69">
         <v>0.16</v>
       </c>
       <c r="K31" s="63">
@@ -2533,7 +2502,7 @@
       <c r="M31" s="17"/>
       <c r="N31" s="36"/>
     </row>
-    <row r="32" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="19">
         <v>25</v>
       </c>
@@ -2554,7 +2523,7 @@
       <c r="M32" s="12"/>
       <c r="N32" s="37"/>
     </row>
-    <row r="33" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="18">
         <v>26</v>
       </c>
@@ -2575,7 +2544,7 @@
       <c r="M33" s="17"/>
       <c r="N33" s="36"/>
     </row>
-    <row r="34" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="19">
         <v>27</v>
       </c>
@@ -2596,7 +2565,7 @@
       <c r="M34" s="12"/>
       <c r="N34" s="37"/>
     </row>
-    <row r="35" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="18">
         <v>28</v>
       </c>
@@ -2617,7 +2586,7 @@
       <c r="M35" s="17"/>
       <c r="N35" s="36"/>
     </row>
-    <row r="36" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="19">
         <v>29</v>
       </c>
@@ -2638,7 +2607,7 @@
       <c r="M36" s="12"/>
       <c r="N36" s="37"/>
     </row>
-    <row r="37" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="18">
         <v>30</v>
       </c>
@@ -2659,7 +2628,7 @@
       <c r="M37" s="17"/>
       <c r="N37" s="36"/>
     </row>
-    <row r="38" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="19">
         <v>31</v>
       </c>
@@ -2680,7 +2649,7 @@
       <c r="M38" s="12"/>
       <c r="N38" s="37"/>
     </row>
-    <row r="39" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="18">
         <v>32</v>
       </c>
@@ -2701,7 +2670,7 @@
       <c r="M39" s="17"/>
       <c r="N39" s="36"/>
     </row>
-    <row r="40" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="19">
         <v>33</v>
       </c>
@@ -2722,7 +2691,7 @@
       <c r="M40" s="12"/>
       <c r="N40" s="37"/>
     </row>
-    <row r="41" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="18">
         <v>34</v>
       </c>
@@ -2743,7 +2712,7 @@
       <c r="M41" s="17"/>
       <c r="N41" s="36"/>
     </row>
-    <row r="42" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="19">
         <v>35</v>
       </c>
@@ -2764,7 +2733,7 @@
       <c r="M42" s="12"/>
       <c r="N42" s="37"/>
     </row>
-    <row r="43" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="18">
         <v>36</v>
       </c>
@@ -2785,7 +2754,7 @@
       <c r="M43" s="17"/>
       <c r="N43" s="36"/>
     </row>
-    <row r="44" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="19">
         <v>37</v>
       </c>
@@ -2806,7 +2775,7 @@
       <c r="M44" s="12"/>
       <c r="N44" s="37"/>
     </row>
-    <row r="45" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="18">
         <v>38</v>
       </c>
@@ -2827,7 +2796,7 @@
       <c r="M45" s="17"/>
       <c r="N45" s="36"/>
     </row>
-    <row r="46" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="19">
         <v>39</v>
       </c>
@@ -2848,7 +2817,7 @@
       <c r="M46" s="12"/>
       <c r="N46" s="37"/>
     </row>
-    <row r="47" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="18">
         <v>40</v>
       </c>
@@ -2869,7 +2838,7 @@
       <c r="M47" s="17"/>
       <c r="N47" s="36"/>
     </row>
-    <row r="48" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="19">
         <v>41</v>
       </c>
@@ -2890,7 +2859,7 @@
       <c r="M48" s="12"/>
       <c r="N48" s="37"/>
     </row>
-    <row r="49" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="18">
         <v>42</v>
       </c>
@@ -2911,7 +2880,7 @@
       <c r="M49" s="17"/>
       <c r="N49" s="36"/>
     </row>
-    <row r="50" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="19">
         <v>43</v>
       </c>
@@ -2932,7 +2901,7 @@
       <c r="M50" s="12"/>
       <c r="N50" s="37"/>
     </row>
-    <row r="51" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="18">
         <v>44</v>
       </c>
@@ -2953,7 +2922,7 @@
       <c r="M51" s="17"/>
       <c r="N51" s="36"/>
     </row>
-    <row r="52" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="19">
         <v>45</v>
       </c>
@@ -2974,7 +2943,7 @@
       <c r="M52" s="12"/>
       <c r="N52" s="37"/>
     </row>
-    <row r="53" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="18">
         <v>46</v>
       </c>
@@ -2995,7 +2964,7 @@
       <c r="M53" s="17"/>
       <c r="N53" s="36"/>
     </row>
-    <row r="54" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="19">
         <v>47</v>
       </c>
@@ -3016,7 +2985,7 @@
       <c r="M54" s="12"/>
       <c r="N54" s="37"/>
     </row>
-    <row r="55" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="18">
         <v>48</v>
       </c>
@@ -3037,7 +3006,7 @@
       <c r="M55" s="17"/>
       <c r="N55" s="36"/>
     </row>
-    <row r="56" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="19">
         <v>49</v>
       </c>
@@ -3058,7 +3027,7 @@
       <c r="M56" s="12"/>
       <c r="N56" s="37"/>
     </row>
-    <row r="57" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A57" s="44">
         <v>50</v>
       </c>
@@ -3079,7 +3048,7 @@
       <c r="M57" s="49"/>
       <c r="N57" s="50"/>
     </row>
-    <row r="58" spans="1:14" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="26"/>
       <c r="B58" s="51"/>
       <c r="C58" s="51"/>
@@ -3094,7 +3063,7 @@
       <c r="J58" s="53"/>
       <c r="K58" s="53">
         <f>SUM(K8:K57)</f>
-        <v>44.204000000000015</v>
+        <v>38.08400000000001</v>
       </c>
       <c r="L58" s="52"/>
       <c r="M58" s="27"/>
@@ -3110,7 +3079,7 @@
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E3:F3"/>
   </mergeCells>
-  <conditionalFormatting sqref="B8:C16 B33:C57 B21:C31">
+  <conditionalFormatting sqref="B8:C16 B21:C31 B33:C57">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -3119,17 +3088,16 @@
     <hyperlink ref="J4" r:id="rId1" xr:uid="{35466134-2A7F-4179-9999-B668511D0075}"/>
     <hyperlink ref="F9" r:id="rId2" xr:uid="{FA68273C-7C8D-4940-A682-21F23304A347}"/>
     <hyperlink ref="F11" r:id="rId3" xr:uid="{FEEC96DC-A4EE-2C42-A31E-B85E39B7972A}"/>
-    <hyperlink ref="F12" r:id="rId4" xr:uid="{55820CA5-0FE5-8A45-92E3-D5AE860166BE}"/>
-    <hyperlink ref="F17" r:id="rId5" xr:uid="{EDECB785-1FD4-8948-AAD5-3358106AD6C7}"/>
-    <hyperlink ref="F8" r:id="rId6" xr:uid="{42FC3623-D92A-AF49-A72F-80CF1DFDDC71}"/>
-    <hyperlink ref="F10" r:id="rId7" xr:uid="{56514570-7DE5-FA47-BCBA-06A7317A9178}"/>
-    <hyperlink ref="F13" r:id="rId8" xr:uid="{B23205FE-BF6C-C740-89EF-B31E02262EFA}"/>
-    <hyperlink ref="F14" r:id="rId9" xr:uid="{497F4E9A-2AF3-3948-BB42-01CBD2214852}"/>
-    <hyperlink ref="F15" r:id="rId10" xr:uid="{3DCDFB0E-58E4-9341-811B-8154DC5ACDE9}"/>
+    <hyperlink ref="F17" r:id="rId4" xr:uid="{EDECB785-1FD4-8948-AAD5-3358106AD6C7}"/>
+    <hyperlink ref="F8" r:id="rId5" xr:uid="{42FC3623-D92A-AF49-A72F-80CF1DFDDC71}"/>
+    <hyperlink ref="F10" r:id="rId6" xr:uid="{56514570-7DE5-FA47-BCBA-06A7317A9178}"/>
+    <hyperlink ref="F13" r:id="rId7" xr:uid="{B23205FE-BF6C-C740-89EF-B31E02262EFA}"/>
+    <hyperlink ref="F14" r:id="rId8" xr:uid="{497F4E9A-2AF3-3948-BB42-01CBD2214852}"/>
+    <hyperlink ref="F15" r:id="rId9" xr:uid="{3DCDFB0E-58E4-9341-811B-8154DC5ACDE9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
   <pageMargins left="0.2" right="0.2" top="0.25" bottom="0.25" header="0.3" footer="0.05"/>
-  <pageSetup paperSize="5" scale="42" orientation="landscape" r:id="rId11"/>
+  <pageSetup paperSize="5" scale="42" orientation="landscape" r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -3141,78 +3109,78 @@
   <dimension ref="A2:N58"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="3" width="12" style="3" customWidth="1"/>
     <col min="4" max="7" width="40" style="3" customWidth="1"/>
-    <col min="8" max="8" width="91.1640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="24.5" style="11" customWidth="1"/>
-    <col min="10" max="11" width="13.5" style="7" customWidth="1"/>
-    <col min="12" max="12" width="31.33203125" customWidth="1"/>
-    <col min="13" max="13" width="14.1640625" style="13" customWidth="1"/>
-    <col min="14" max="14" width="13.83203125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="91.140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="24.42578125" style="11" customWidth="1"/>
+    <col min="10" max="11" width="13.42578125" style="7" customWidth="1"/>
+    <col min="12" max="12" width="31.28515625" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" style="13" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-    </row>
-    <row r="3" spans="1:14" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+    </row>
+    <row r="3" spans="1:14" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="72" t="s">
+      <c r="C3" s="81"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="73"/>
+      <c r="F3" s="86"/>
       <c r="G3" s="55" t="s">
         <v>16</v>
       </c>
       <c r="H3" s="64" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I3" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="65" t="s">
+      <c r="J3" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="67"/>
-    </row>
-    <row r="4" spans="1:14" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="78"/>
+    </row>
+    <row r="4" spans="1:14" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="77"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="84"/>
       <c r="E4" s="40">
         <f ca="1">TODAY()</f>
-        <v>45599</v>
+        <v>45611</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -3220,15 +3188,15 @@
       <c r="I4" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="68" t="s">
+      <c r="J4" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="67"/>
-    </row>
-    <row r="5" spans="1:14" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="78"/>
+    </row>
+    <row r="5" spans="1:14" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="1"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -3246,7 +3214,7 @@
       <c r="M5" s="25"/>
       <c r="N5" s="25"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3258,13 +3226,13 @@
       <c r="I6" s="9"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="79" t="s">
+      <c r="L6" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="80"/>
-      <c r="N6" s="81"/>
-    </row>
-    <row r="7" spans="1:14" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M6" s="74"/>
+      <c r="N6" s="75"/>
+    </row>
+    <row r="7" spans="1:14" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>8</v>
       </c>
@@ -3308,33 +3276,33 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="30.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="19">
         <v>1</v>
       </c>
-      <c r="B8" s="82">
+      <c r="B8" s="68">
         <v>1</v>
       </c>
-      <c r="C8" s="76"/>
-      <c r="D8" s="86" t="s">
-        <v>132</v>
-      </c>
-      <c r="E8" s="83" t="s">
-        <v>130</v>
-      </c>
-      <c r="F8" s="84" t="s">
+      <c r="C8" s="67"/>
+      <c r="D8" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="G8" s="83" t="s">
+      <c r="E8" s="69" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="G8" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="85" t="s">
-        <v>129</v>
-      </c>
-      <c r="I8" s="83" t="s">
-        <v>130</v>
-      </c>
-      <c r="J8" s="83">
+      <c r="H8" s="71" t="s">
+        <v>125</v>
+      </c>
+      <c r="I8" s="69" t="s">
+        <v>126</v>
+      </c>
+      <c r="J8" s="69">
         <v>22.99</v>
       </c>
       <c r="K8" s="63">
@@ -3345,19 +3313,19 @@
       <c r="M8" s="34"/>
       <c r="N8" s="35"/>
     </row>
-    <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="18">
         <v>2</v>
       </c>
-      <c r="B9" s="82"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="83"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
       <c r="K9" s="63">
         <f t="shared" ref="K9:K57" si="0">J9*B9</f>
         <v>0</v>
@@ -3366,19 +3334,19 @@
       <c r="M9" s="17"/>
       <c r="N9" s="36"/>
     </row>
-    <row r="10" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="19">
         <v>3</v>
       </c>
-      <c r="B10" s="82"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="83"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
       <c r="K10" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3387,19 +3355,19 @@
       <c r="M10" s="12"/>
       <c r="N10" s="37"/>
     </row>
-    <row r="11" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="18">
         <v>4</v>
       </c>
-      <c r="B11" s="82"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="83"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="69"/>
       <c r="K11" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3408,19 +3376,19 @@
       <c r="M11" s="17"/>
       <c r="N11" s="36"/>
     </row>
-    <row r="12" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="19">
         <v>5</v>
       </c>
-      <c r="B12" s="82"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="83"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
       <c r="K12" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3429,19 +3397,19 @@
       <c r="M12" s="12"/>
       <c r="N12" s="37"/>
     </row>
-    <row r="13" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="18">
         <v>6</v>
       </c>
-      <c r="B13" s="82"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="85"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="83"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
       <c r="K13" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3450,19 +3418,19 @@
       <c r="M13" s="17"/>
       <c r="N13" s="36"/>
     </row>
-    <row r="14" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="19">
         <v>7</v>
       </c>
-      <c r="B14" s="82"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="85"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="83"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
       <c r="K14" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3471,19 +3439,19 @@
       <c r="M14" s="12"/>
       <c r="N14" s="37"/>
     </row>
-    <row r="15" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="18">
         <v>8</v>
       </c>
-      <c r="B15" s="82"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="83"/>
-      <c r="J15" s="83"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
       <c r="K15" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3492,19 +3460,19 @@
       <c r="M15" s="17"/>
       <c r="N15" s="36"/>
     </row>
-    <row r="16" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="19">
         <v>9</v>
       </c>
-      <c r="B16" s="82"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="85"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="83"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="69"/>
       <c r="K16" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3513,19 +3481,19 @@
       <c r="M16" s="12"/>
       <c r="N16" s="37"/>
     </row>
-    <row r="17" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="18">
         <v>10</v>
       </c>
-      <c r="B17" s="82"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="83"/>
-      <c r="J17" s="83"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69"/>
       <c r="K17" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3534,19 +3502,19 @@
       <c r="M17" s="17"/>
       <c r="N17" s="36"/>
     </row>
-    <row r="18" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="19">
         <v>11</v>
       </c>
-      <c r="B18" s="82"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="83"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
       <c r="K18" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3555,19 +3523,19 @@
       <c r="M18" s="12"/>
       <c r="N18" s="37"/>
     </row>
-    <row r="19" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="18">
         <v>12</v>
       </c>
-      <c r="B19" s="82"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="83"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
       <c r="K19" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3576,19 +3544,19 @@
       <c r="M19" s="17"/>
       <c r="N19" s="36"/>
     </row>
-    <row r="20" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="19">
         <v>13</v>
       </c>
-      <c r="B20" s="82"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="83"/>
-      <c r="J20" s="83"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="69"/>
       <c r="K20" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3597,19 +3565,19 @@
       <c r="M20" s="12"/>
       <c r="N20" s="37"/>
     </row>
-    <row r="21" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="18">
         <v>14</v>
       </c>
-      <c r="B21" s="82"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="83"/>
-      <c r="I21" s="83"/>
-      <c r="J21" s="83"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="69"/>
       <c r="K21" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3618,19 +3586,19 @@
       <c r="M21" s="17"/>
       <c r="N21" s="36"/>
     </row>
-    <row r="22" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="19">
         <v>15</v>
       </c>
-      <c r="B22" s="82"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="83"/>
-      <c r="I22" s="83"/>
-      <c r="J22" s="83"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="69"/>
       <c r="K22" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3639,19 +3607,19 @@
       <c r="M22" s="12"/>
       <c r="N22" s="37"/>
     </row>
-    <row r="23" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="18">
         <v>16</v>
       </c>
-      <c r="B23" s="82"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="83"/>
-      <c r="I23" s="83"/>
-      <c r="J23" s="83"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
       <c r="K23" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3660,19 +3628,19 @@
       <c r="M23" s="17"/>
       <c r="N23" s="36"/>
     </row>
-    <row r="24" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="19">
         <v>17</v>
       </c>
-      <c r="B24" s="82"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="83"/>
-      <c r="I24" s="74"/>
-      <c r="J24" s="83"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="69"/>
       <c r="K24" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3681,19 +3649,19 @@
       <c r="M24" s="12"/>
       <c r="N24" s="37"/>
     </row>
-    <row r="25" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="18">
         <v>18</v>
       </c>
-      <c r="B25" s="82"/>
-      <c r="C25" s="76"/>
-      <c r="D25" s="83"/>
-      <c r="E25" s="83"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="83"/>
-      <c r="H25" s="83"/>
-      <c r="I25" s="83"/>
-      <c r="J25" s="83"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
       <c r="K25" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3702,19 +3670,19 @@
       <c r="M25" s="17"/>
       <c r="N25" s="36"/>
     </row>
-    <row r="26" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="19">
         <v>19</v>
       </c>
-      <c r="B26" s="82"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="83"/>
-      <c r="E26" s="83"/>
-      <c r="F26" s="83"/>
-      <c r="G26" s="83"/>
-      <c r="H26" s="83"/>
-      <c r="I26" s="83"/>
-      <c r="J26" s="83"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
       <c r="K26" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3723,19 +3691,19 @@
       <c r="M26" s="12"/>
       <c r="N26" s="37"/>
     </row>
-    <row r="27" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="18">
         <v>20</v>
       </c>
-      <c r="B27" s="82"/>
-      <c r="C27" s="76"/>
-      <c r="D27" s="83"/>
-      <c r="E27" s="83"/>
-      <c r="F27" s="83"/>
-      <c r="G27" s="83"/>
-      <c r="H27" s="83"/>
-      <c r="I27" s="83"/>
-      <c r="J27" s="83"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="69"/>
       <c r="K27" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3744,19 +3712,19 @@
       <c r="M27" s="17"/>
       <c r="N27" s="36"/>
     </row>
-    <row r="28" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="19">
         <v>21</v>
       </c>
-      <c r="B28" s="82"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="83"/>
-      <c r="F28" s="83"/>
-      <c r="G28" s="83"/>
-      <c r="H28" s="83"/>
-      <c r="I28" s="83"/>
-      <c r="J28" s="83"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="69"/>
       <c r="K28" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3765,19 +3733,19 @@
       <c r="M28" s="12"/>
       <c r="N28" s="37"/>
     </row>
-    <row r="29" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="18">
         <v>22</v>
       </c>
-      <c r="B29" s="82"/>
-      <c r="C29" s="76"/>
-      <c r="D29" s="83"/>
-      <c r="E29" s="83"/>
-      <c r="F29" s="83"/>
-      <c r="G29" s="83"/>
-      <c r="H29" s="83"/>
-      <c r="I29" s="83"/>
-      <c r="J29" s="83"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="69"/>
       <c r="K29" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3786,19 +3754,19 @@
       <c r="M29" s="17"/>
       <c r="N29" s="36"/>
     </row>
-    <row r="30" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="19">
         <v>23</v>
       </c>
-      <c r="B30" s="82"/>
-      <c r="C30" s="76"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="83"/>
-      <c r="F30" s="83"/>
-      <c r="G30" s="83"/>
-      <c r="H30" s="83"/>
-      <c r="I30" s="83"/>
-      <c r="J30" s="83"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="69"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="69"/>
+      <c r="J30" s="69"/>
       <c r="K30" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3807,19 +3775,19 @@
       <c r="M30" s="12"/>
       <c r="N30" s="37"/>
     </row>
-    <row r="31" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="18">
         <v>24</v>
       </c>
-      <c r="B31" s="82"/>
-      <c r="C31" s="76"/>
-      <c r="D31" s="83"/>
-      <c r="E31" s="83"/>
-      <c r="F31" s="83"/>
-      <c r="G31" s="83"/>
-      <c r="H31" s="83"/>
-      <c r="I31" s="83"/>
-      <c r="J31" s="83"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="69"/>
+      <c r="J31" s="69"/>
       <c r="K31" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3828,11 +3796,11 @@
       <c r="M31" s="17"/>
       <c r="N31" s="36"/>
     </row>
-    <row r="32" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="19">
         <v>25</v>
       </c>
-      <c r="B32" s="82"/>
+      <c r="B32" s="68"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -3849,7 +3817,7 @@
       <c r="M32" s="12"/>
       <c r="N32" s="37"/>
     </row>
-    <row r="33" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="18">
         <v>26</v>
       </c>
@@ -3870,7 +3838,7 @@
       <c r="M33" s="17"/>
       <c r="N33" s="36"/>
     </row>
-    <row r="34" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="19">
         <v>27</v>
       </c>
@@ -3891,7 +3859,7 @@
       <c r="M34" s="12"/>
       <c r="N34" s="37"/>
     </row>
-    <row r="35" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="18">
         <v>28</v>
       </c>
@@ -3912,7 +3880,7 @@
       <c r="M35" s="17"/>
       <c r="N35" s="36"/>
     </row>
-    <row r="36" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="19">
         <v>29</v>
       </c>
@@ -3933,7 +3901,7 @@
       <c r="M36" s="12"/>
       <c r="N36" s="37"/>
     </row>
-    <row r="37" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="18">
         <v>30</v>
       </c>
@@ -3954,7 +3922,7 @@
       <c r="M37" s="17"/>
       <c r="N37" s="36"/>
     </row>
-    <row r="38" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="19">
         <v>31</v>
       </c>
@@ -3975,7 +3943,7 @@
       <c r="M38" s="12"/>
       <c r="N38" s="37"/>
     </row>
-    <row r="39" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="18">
         <v>32</v>
       </c>
@@ -3996,7 +3964,7 @@
       <c r="M39" s="17"/>
       <c r="N39" s="36"/>
     </row>
-    <row r="40" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="19">
         <v>33</v>
       </c>
@@ -4017,7 +3985,7 @@
       <c r="M40" s="12"/>
       <c r="N40" s="37"/>
     </row>
-    <row r="41" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="18">
         <v>34</v>
       </c>
@@ -4038,7 +4006,7 @@
       <c r="M41" s="17"/>
       <c r="N41" s="36"/>
     </row>
-    <row r="42" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="19">
         <v>35</v>
       </c>
@@ -4059,7 +4027,7 @@
       <c r="M42" s="12"/>
       <c r="N42" s="37"/>
     </row>
-    <row r="43" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="18">
         <v>36</v>
       </c>
@@ -4080,7 +4048,7 @@
       <c r="M43" s="17"/>
       <c r="N43" s="36"/>
     </row>
-    <row r="44" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="19">
         <v>37</v>
       </c>
@@ -4101,7 +4069,7 @@
       <c r="M44" s="12"/>
       <c r="N44" s="37"/>
     </row>
-    <row r="45" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="18">
         <v>38</v>
       </c>
@@ -4122,7 +4090,7 @@
       <c r="M45" s="17"/>
       <c r="N45" s="36"/>
     </row>
-    <row r="46" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="19">
         <v>39</v>
       </c>
@@ -4143,7 +4111,7 @@
       <c r="M46" s="12"/>
       <c r="N46" s="37"/>
     </row>
-    <row r="47" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="18">
         <v>40</v>
       </c>
@@ -4164,7 +4132,7 @@
       <c r="M47" s="17"/>
       <c r="N47" s="36"/>
     </row>
-    <row r="48" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="19">
         <v>41</v>
       </c>
@@ -4185,7 +4153,7 @@
       <c r="M48" s="12"/>
       <c r="N48" s="37"/>
     </row>
-    <row r="49" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="18">
         <v>42</v>
       </c>
@@ -4206,7 +4174,7 @@
       <c r="M49" s="17"/>
       <c r="N49" s="36"/>
     </row>
-    <row r="50" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="19">
         <v>43</v>
       </c>
@@ -4227,7 +4195,7 @@
       <c r="M50" s="12"/>
       <c r="N50" s="37"/>
     </row>
-    <row r="51" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="18">
         <v>44</v>
       </c>
@@ -4248,7 +4216,7 @@
       <c r="M51" s="17"/>
       <c r="N51" s="36"/>
     </row>
-    <row r="52" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="19">
         <v>45</v>
       </c>
@@ -4269,7 +4237,7 @@
       <c r="M52" s="12"/>
       <c r="N52" s="37"/>
     </row>
-    <row r="53" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="18">
         <v>46</v>
       </c>
@@ -4290,7 +4258,7 @@
       <c r="M53" s="17"/>
       <c r="N53" s="36"/>
     </row>
-    <row r="54" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="19">
         <v>47</v>
       </c>
@@ -4311,7 +4279,7 @@
       <c r="M54" s="12"/>
       <c r="N54" s="37"/>
     </row>
-    <row r="55" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="18">
         <v>48</v>
       </c>
@@ -4332,7 +4300,7 @@
       <c r="M55" s="17"/>
       <c r="N55" s="36"/>
     </row>
-    <row r="56" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="19">
         <v>49</v>
       </c>
@@ -4353,7 +4321,7 @@
       <c r="M56" s="12"/>
       <c r="N56" s="37"/>
     </row>
-    <row r="57" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A57" s="44">
         <v>50</v>
       </c>
@@ -4374,7 +4342,7 @@
       <c r="M57" s="49"/>
       <c r="N57" s="50"/>
     </row>
-    <row r="58" spans="1:14" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="26"/>
       <c r="B58" s="51"/>
       <c r="C58" s="51"/>
@@ -4405,7 +4373,7 @@
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="J4:N4"/>
   </mergeCells>
-  <conditionalFormatting sqref="B8:C16 B33:C57 B21:C31">
+  <conditionalFormatting sqref="B8:C16 B21:C31 B33:C57">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
